--- a/20 開発資料/02.画面設計/画面レイアウト(08_講演会基本情報).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(08_講演会基本情報).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="179">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -846,20 +846,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会種別</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KOUENKAI_KUBUN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>W</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1037,6 +1023,130 @@
     <t>登録</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会情報を表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記画面から起動される。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新着　講演会基本情報一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索　講演会基本情報一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宿泊・交通・タクシーチケット</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手配依頼画面</t>
+  </si>
+  <si>
+    <t>ステータスを「既読」に変更して登録</t>
+    <rPh sb="7" eb="9">
+      <t>キドク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>またはNOZOMIへの送信対象とすると、</t>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新着画面の表示対象ではなくなる。</t>
+    <rPh sb="0" eb="2">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1433,7 +1543,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1707,20 +1817,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1813,6 +1923,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1822,9 +1935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1837,6 +1947,24 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1846,23 +1974,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2583,19 +2696,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>15685</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>176440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2615,8 +2728,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="1543051"/>
-          <a:ext cx="6616510" cy="4171949"/>
+          <a:off x="200026" y="1543050"/>
+          <a:ext cx="6577239" cy="4695825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3230,47 +3343,47 @@
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="91" t="s">
+      <c r="O9" s="94" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="96"/>
       <c r="Q9" s="96"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="91" t="s">
+      <c r="R9" s="95"/>
+      <c r="S9" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="92"/>
-      <c r="U9" s="91" t="s">
+      <c r="T9" s="95"/>
+      <c r="U9" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V9" s="96"/>
       <c r="W9" s="96"/>
       <c r="X9" s="96"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AA9" s="96"/>
       <c r="AB9" s="96"/>
       <c r="AC9" s="96"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="91" t="s">
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AF9" s="96"/>
-      <c r="AG9" s="91" t="s">
+      <c r="AG9" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AH9" s="56"/>
-      <c r="AI9" s="91" t="s">
+      <c r="AI9" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="91" t="s">
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="91" t="s">
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="94" t="s">
         <v>26</v>
       </c>
       <c r="AN9" s="96"/>
@@ -3279,11 +3392,11 @@
       <c r="AQ9" s="96"/>
       <c r="AR9" s="96"/>
       <c r="AS9" s="96"/>
-      <c r="AT9" s="91" t="s">
+      <c r="AT9" s="94" t="s">
         <v>27</v>
       </c>
       <c r="AU9" s="96"/>
-      <c r="AV9" s="91" t="s">
+      <c r="AV9" s="94" t="s">
         <v>52</v>
       </c>
       <c r="AW9" s="96"/>
@@ -3313,30 +3426,30 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="93" t="s">
+      <c r="O10" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
       <c r="S10" s="66" t="s">
         <v>55</v>
       </c>
       <c r="T10" s="90"/>
-      <c r="U10" s="93" t="s">
+      <c r="U10" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="93" t="s">
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="93"/>
       <c r="AE10" s="66" t="s">
         <v>29</v>
       </c>
@@ -4968,7 +5081,6 @@
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AJ10"/>
@@ -5004,11 +5116,6 @@
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AK13:AL13"/>
     <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM15:AS15"/>
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AS11"/>
     <mergeCell ref="AT11:AU11"/>
@@ -5024,17 +5131,16 @@
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AG15:AH15"/>
     <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="O15:R15"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
     <mergeCell ref="AM16:AS16"/>
     <mergeCell ref="AT16:AU16"/>
     <mergeCell ref="O17:R17"/>
@@ -5052,6 +5158,13 @@
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="U16:Y16"/>
     <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="Z19:AD19"/>
     <mergeCell ref="AK19:AL19"/>
     <mergeCell ref="AM19:AS19"/>
@@ -5095,6 +5208,14 @@
     <mergeCell ref="AK21:AL21"/>
     <mergeCell ref="AM21:AS21"/>
     <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE26:AF26"/>
     <mergeCell ref="O24:R24"/>
     <mergeCell ref="S24:T24"/>
     <mergeCell ref="U24:Y24"/>
@@ -5111,16 +5232,6 @@
     <mergeCell ref="AG23:AH23"/>
     <mergeCell ref="AI23:AJ23"/>
     <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AM27:AS27"/>
     <mergeCell ref="AM25:AS25"/>
     <mergeCell ref="AT25:AU25"/>
     <mergeCell ref="AV25:AW25"/>
@@ -5140,18 +5251,7 @@
     <mergeCell ref="AE25:AF25"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK25:AL25"/>
     <mergeCell ref="AK27:AL27"/>
     <mergeCell ref="AV29:AW29"/>
     <mergeCell ref="O27:R27"/>
@@ -5165,6 +5265,18 @@
     <mergeCell ref="AM28:AS28"/>
     <mergeCell ref="AT28:AU28"/>
     <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
     <mergeCell ref="AK29:AL29"/>
     <mergeCell ref="AM29:AS29"/>
     <mergeCell ref="AE29:AF29"/>
@@ -5192,8 +5304,6 @@
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AG31:AH31"/>
     <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
     <mergeCell ref="AE32:AF32"/>
     <mergeCell ref="AK34:AL34"/>
     <mergeCell ref="AT31:AU31"/>
@@ -5229,6 +5339,8 @@
     <mergeCell ref="U34:Y34"/>
     <mergeCell ref="Z34:AD34"/>
     <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
     <mergeCell ref="AX36:AZ36"/>
     <mergeCell ref="AM35:AS35"/>
     <mergeCell ref="AT35:AU35"/>
@@ -5269,6 +5381,7 @@
     <mergeCell ref="AX25:AZ25"/>
     <mergeCell ref="AX24:AZ24"/>
     <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX27:AZ27"/>
     <mergeCell ref="AX10:AZ10"/>
     <mergeCell ref="AX9:AZ9"/>
     <mergeCell ref="AM33:AS33"/>
@@ -5309,13 +5422,13 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AQ3"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="98"/>
@@ -5428,7 +5541,7 @@
       <c r="AK2" s="106"/>
       <c r="AL2" s="106"/>
       <c r="AM2" s="120">
-        <v>41542</v>
+        <v>41548</v>
       </c>
       <c r="AN2" s="121"/>
       <c r="AO2" s="121"/>
@@ -5532,14 +5645,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
       <c r="K8" s="35" t="s">
         <v>43</v>
       </c>
@@ -5680,7 +5793,9 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
@@ -5734,7 +5849,9 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="5"/>
+      <c r="AK11" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
@@ -5788,12 +5905,9 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
+      <c r="AK12" s="140" t="s">
+        <v>177</v>
+      </c>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
@@ -5842,12 +5956,9 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
+      <c r="AK13" s="140" t="s">
+        <v>178</v>
+      </c>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
@@ -5896,12 +6007,6 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
@@ -5950,12 +6055,6 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
@@ -6004,12 +6103,6 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
@@ -6058,7 +6151,9 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="5"/>
+      <c r="AK17" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
@@ -6112,9 +6207,12 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="4"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
+      <c r="AK18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -6166,9 +6264,12 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
+      <c r="AK19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -6220,9 +6321,12 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="4"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
+      <c r="AK20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -6275,7 +6379,9 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AL21" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
@@ -6328,11 +6434,6 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="4"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
@@ -7211,11 +7312,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="A1:H3"/>
@@ -7230,10 +7335,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7247,10 +7348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ46"/>
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AQ3"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -7259,7 +7360,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="98"/>
@@ -7372,7 +7473,7 @@
       <c r="AK2" s="106"/>
       <c r="AL2" s="106"/>
       <c r="AM2" s="120">
-        <v>41542</v>
+        <v>41548</v>
       </c>
       <c r="AN2" s="121"/>
       <c r="AO2" s="121"/>
@@ -7477,14 +7578,14 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="35" t="s">
         <v>43</v>
       </c>
@@ -7550,47 +7651,47 @@
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="91" t="s">
+      <c r="O9" s="94" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="96"/>
       <c r="Q9" s="96"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="91" t="s">
+      <c r="R9" s="95"/>
+      <c r="S9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="92"/>
-      <c r="U9" s="91" t="s">
+      <c r="T9" s="95"/>
+      <c r="U9" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V9" s="96"/>
       <c r="W9" s="96"/>
       <c r="X9" s="96"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AA9" s="96"/>
       <c r="AB9" s="96"/>
       <c r="AC9" s="96"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="91" t="s">
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="91" t="s">
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AH9" s="56"/>
-      <c r="AI9" s="91" t="s">
+      <c r="AI9" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="91" t="s">
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="91" t="s">
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="94" t="s">
         <v>26</v>
       </c>
       <c r="AN9" s="96"/>
@@ -7598,15 +7699,15 @@
       <c r="AP9" s="96"/>
       <c r="AQ9" s="96"/>
       <c r="AR9" s="96"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="91" t="s">
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="91" t="s">
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="AW9" s="92"/>
+      <c r="AW9" s="95"/>
       <c r="AX9" s="54" t="s">
         <v>39</v>
       </c>
@@ -7615,7 +7716,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="33">
-        <f t="shared" ref="A10:A36" si="0">ROW()-9</f>
+        <f t="shared" ref="A10:A35" si="0">ROW()-9</f>
         <v>1</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -7757,7 +7858,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7772,7 +7873,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="O12" s="127" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="P12" s="128"/>
       <c r="Q12" s="128"/>
@@ -7782,7 +7883,7 @@
       </c>
       <c r="T12" s="65"/>
       <c r="U12" s="127" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V12" s="128"/>
       <c r="W12" s="128"/>
@@ -7800,11 +7901,11 @@
       </c>
       <c r="AF12" s="65"/>
       <c r="AG12" s="60" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="AH12" s="65"/>
-      <c r="AI12" s="60">
-        <v>10</v>
+      <c r="AI12" s="60" t="s">
+        <v>85</v>
       </c>
       <c r="AJ12" s="65"/>
       <c r="AK12" s="60" t="s">
@@ -7819,14 +7920,14 @@
       <c r="AR12" s="58"/>
       <c r="AS12" s="59"/>
       <c r="AT12" s="60" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AU12" s="65"/>
       <c r="AV12" s="60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AW12" s="65"/>
-      <c r="AX12" s="62"/>
+      <c r="AX12" s="130"/>
       <c r="AY12" s="63"/>
       <c r="AZ12" s="64"/>
     </row>
@@ -7835,23 +7936,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
+      <c r="B13" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="127" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="P13" s="128"/>
       <c r="Q13" s="128"/>
@@ -7861,7 +7962,7 @@
       </c>
       <c r="T13" s="65"/>
       <c r="U13" s="127" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="V13" s="128"/>
       <c r="W13" s="128"/>
@@ -7879,18 +7980,20 @@
       </c>
       <c r="AF13" s="65"/>
       <c r="AG13" s="60" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AH13" s="65"/>
-      <c r="AI13" s="60" t="s">
-        <v>85</v>
+      <c r="AI13" s="60">
+        <v>19</v>
       </c>
       <c r="AJ13" s="65"/>
       <c r="AK13" s="60" t="s">
         <v>30</v>
       </c>
       <c r="AL13" s="65"/>
-      <c r="AM13" s="57"/>
+      <c r="AM13" s="57" t="s">
+        <v>161</v>
+      </c>
       <c r="AN13" s="58"/>
       <c r="AO13" s="58"/>
       <c r="AP13" s="58"/>
@@ -7905,7 +8008,7 @@
         <v>79</v>
       </c>
       <c r="AW13" s="65"/>
-      <c r="AX13" s="130"/>
+      <c r="AX13" s="62"/>
       <c r="AY13" s="63"/>
       <c r="AZ13" s="64"/>
     </row>
@@ -7914,23 +8017,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="B14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P14" s="128"/>
       <c r="Q14" s="128"/>
@@ -7940,7 +8043,7 @@
       </c>
       <c r="T14" s="65"/>
       <c r="U14" s="127" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="V14" s="128"/>
       <c r="W14" s="128"/>
@@ -7958,20 +8061,18 @@
       </c>
       <c r="AF14" s="65"/>
       <c r="AG14" s="60" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="AH14" s="65"/>
       <c r="AI14" s="60">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AJ14" s="65"/>
       <c r="AK14" s="60" t="s">
         <v>30</v>
       </c>
       <c r="AL14" s="65"/>
-      <c r="AM14" s="57" t="s">
-        <v>163</v>
-      </c>
+      <c r="AM14" s="57"/>
       <c r="AN14" s="58"/>
       <c r="AO14" s="58"/>
       <c r="AP14" s="58"/>
@@ -7995,21 +8096,21 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="B15" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="127" t="s">
         <v>105</v>
       </c>
@@ -8017,11 +8118,11 @@
       <c r="Q15" s="128"/>
       <c r="R15" s="129"/>
       <c r="S15" s="60" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="T15" s="65"/>
       <c r="U15" s="127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V15" s="128"/>
       <c r="W15" s="128"/>
@@ -8039,11 +8140,11 @@
       </c>
       <c r="AF15" s="65"/>
       <c r="AG15" s="60" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AH15" s="65"/>
       <c r="AI15" s="60">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AJ15" s="65"/>
       <c r="AK15" s="60" t="s">
@@ -8062,7 +8163,7 @@
       </c>
       <c r="AU15" s="65"/>
       <c r="AV15" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW15" s="65"/>
       <c r="AX15" s="62"/>
@@ -8075,7 +8176,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -8100,7 +8201,7 @@
       </c>
       <c r="T16" s="65"/>
       <c r="U16" s="127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V16" s="128"/>
       <c r="W16" s="128"/>
@@ -8118,11 +8219,11 @@
       </c>
       <c r="AF16" s="65"/>
       <c r="AG16" s="60" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH16" s="65"/>
       <c r="AI16" s="60">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AJ16" s="65"/>
       <c r="AK16" s="60" t="s">
@@ -8153,21 +8254,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="B17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="127" t="s">
         <v>105</v>
       </c>
@@ -8175,11 +8276,11 @@
       <c r="Q17" s="128"/>
       <c r="R17" s="129"/>
       <c r="S17" s="60" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="T17" s="65"/>
       <c r="U17" s="127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V17" s="128"/>
       <c r="W17" s="128"/>
@@ -8197,18 +8298,20 @@
       </c>
       <c r="AF17" s="65"/>
       <c r="AG17" s="60" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AH17" s="65"/>
       <c r="AI17" s="60">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="AJ17" s="65"/>
       <c r="AK17" s="60" t="s">
         <v>30</v>
       </c>
       <c r="AL17" s="65"/>
-      <c r="AM17" s="57"/>
+      <c r="AM17" s="57" t="s">
+        <v>146</v>
+      </c>
       <c r="AN17" s="58"/>
       <c r="AO17" s="58"/>
       <c r="AP17" s="58"/>
@@ -8232,21 +8335,21 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
+      <c r="B18" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
       <c r="O18" s="127" t="s">
         <v>105</v>
       </c>
@@ -8254,11 +8357,11 @@
       <c r="Q18" s="128"/>
       <c r="R18" s="129"/>
       <c r="S18" s="60" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="T18" s="65"/>
       <c r="U18" s="127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V18" s="128"/>
       <c r="W18" s="128"/>
@@ -8276,7 +8379,7 @@
       </c>
       <c r="AF18" s="65"/>
       <c r="AG18" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH18" s="65"/>
       <c r="AI18" s="60">
@@ -8288,7 +8391,7 @@
       </c>
       <c r="AL18" s="65"/>
       <c r="AM18" s="57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AN18" s="58"/>
       <c r="AO18" s="58"/>
@@ -8310,26 +8413,26 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19:A45" si="1">ROW()-9</f>
         <v>10</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
+        <v>148</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P19" s="128"/>
       <c r="Q19" s="128"/>
@@ -8357,20 +8460,18 @@
       </c>
       <c r="AF19" s="65"/>
       <c r="AG19" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AH19" s="65"/>
       <c r="AI19" s="60">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AJ19" s="65"/>
       <c r="AK19" s="60" t="s">
         <v>30</v>
       </c>
       <c r="AL19" s="65"/>
-      <c r="AM19" s="57" t="s">
-        <v>148</v>
-      </c>
+      <c r="AM19" s="57"/>
       <c r="AN19" s="58"/>
       <c r="AO19" s="58"/>
       <c r="AP19" s="58"/>
@@ -8391,10 +8492,10 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
-        <f t="shared" ref="A20:A46" si="1">ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C20" s="14"/>
@@ -8438,7 +8539,7 @@
       </c>
       <c r="AF20" s="65"/>
       <c r="AG20" s="60" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="AH20" s="65"/>
       <c r="AI20" s="60">
@@ -8474,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -8495,11 +8596,11 @@
       <c r="Q21" s="128"/>
       <c r="R21" s="129"/>
       <c r="S21" s="60" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="T21" s="65"/>
       <c r="U21" s="127" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="V21" s="128"/>
       <c r="W21" s="128"/>
@@ -8517,11 +8618,11 @@
       </c>
       <c r="AF21" s="65"/>
       <c r="AG21" s="60" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AH21" s="65"/>
       <c r="AI21" s="60">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AJ21" s="65"/>
       <c r="AK21" s="60" t="s">
@@ -8552,8 +8653,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>108</v>
+      <c r="B22" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -8578,7 +8679,7 @@
       </c>
       <c r="T22" s="65"/>
       <c r="U22" s="127" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V22" s="128"/>
       <c r="W22" s="128"/>
@@ -8631,8 +8732,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>109</v>
+      <c r="B23" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8653,11 +8754,11 @@
       <c r="Q23" s="128"/>
       <c r="R23" s="129"/>
       <c r="S23" s="60" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="T23" s="65"/>
       <c r="U23" s="127" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V23" s="128"/>
       <c r="W23" s="128"/>
@@ -8679,7 +8780,7 @@
       </c>
       <c r="AH23" s="65"/>
       <c r="AI23" s="60">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AJ23" s="65"/>
       <c r="AK23" s="60" t="s">
@@ -8710,8 +8811,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>112</v>
+      <c r="B24" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -8736,7 +8837,7 @@
       </c>
       <c r="T24" s="65"/>
       <c r="U24" s="127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V24" s="128"/>
       <c r="W24" s="128"/>
@@ -8789,8 +8890,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>113</v>
+      <c r="B25" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -8815,7 +8916,7 @@
       </c>
       <c r="T25" s="65"/>
       <c r="U25" s="127" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V25" s="128"/>
       <c r="W25" s="128"/>
@@ -8837,7 +8938,7 @@
       </c>
       <c r="AH25" s="65"/>
       <c r="AI25" s="60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ25" s="65"/>
       <c r="AK25" s="60" t="s">
@@ -8859,7 +8960,7 @@
         <v>78</v>
       </c>
       <c r="AW25" s="65"/>
-      <c r="AX25" s="62"/>
+      <c r="AX25" s="130"/>
       <c r="AY25" s="63"/>
       <c r="AZ25" s="64"/>
     </row>
@@ -8869,7 +8970,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -8894,7 +8995,7 @@
       </c>
       <c r="T26" s="65"/>
       <c r="U26" s="127" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V26" s="128"/>
       <c r="W26" s="128"/>
@@ -8912,7 +9013,7 @@
       </c>
       <c r="AF26" s="65"/>
       <c r="AG26" s="60" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AH26" s="65"/>
       <c r="AI26" s="60">
@@ -8938,7 +9039,7 @@
         <v>78</v>
       </c>
       <c r="AW26" s="65"/>
-      <c r="AX26" s="130"/>
+      <c r="AX26" s="62"/>
       <c r="AY26" s="63"/>
       <c r="AZ26" s="64"/>
     </row>
@@ -8947,8 +9048,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>120</v>
+      <c r="B27" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -8962,45 +9063,29 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="60" t="s">
-        <v>35</v>
-      </c>
+      <c r="O27" s="82"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="60"/>
       <c r="T27" s="65"/>
-      <c r="U27" s="127" t="s">
-        <v>121</v>
-      </c>
+      <c r="U27" s="127"/>
       <c r="V27" s="128"/>
       <c r="W27" s="128"/>
       <c r="X27" s="128"/>
       <c r="Y27" s="129"/>
-      <c r="Z27" s="127" t="s">
-        <v>95</v>
-      </c>
+      <c r="Z27" s="127"/>
       <c r="AA27" s="128"/>
       <c r="AB27" s="128"/>
       <c r="AC27" s="128"/>
       <c r="AD27" s="129"/>
-      <c r="AE27" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="60" t="s">
-        <v>100</v>
-      </c>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="60"/>
       <c r="AH27" s="65"/>
-      <c r="AI27" s="60">
-        <v>10</v>
-      </c>
+      <c r="AI27" s="60"/>
       <c r="AJ27" s="65"/>
-      <c r="AK27" s="60" t="s">
-        <v>30</v>
-      </c>
+      <c r="AK27" s="60"/>
       <c r="AL27" s="65"/>
       <c r="AM27" s="57"/>
       <c r="AN27" s="58"/>
@@ -9009,14 +9094,10 @@
       <c r="AQ27" s="58"/>
       <c r="AR27" s="58"/>
       <c r="AS27" s="59"/>
-      <c r="AT27" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW27" s="65"/>
+      <c r="AT27" s="60"/>
+      <c r="AU27" s="61"/>
+      <c r="AV27" s="60"/>
+      <c r="AW27" s="61"/>
       <c r="AX27" s="62"/>
       <c r="AY27" s="63"/>
       <c r="AZ27" s="64"/>
@@ -9026,8 +9107,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>122</v>
+      <c r="B28" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -9041,29 +9122,45 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="60"/>
+      <c r="O28" s="127" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="60" t="s">
+        <v>35</v>
+      </c>
       <c r="T28" s="65"/>
-      <c r="U28" s="127"/>
+      <c r="U28" s="127" t="s">
+        <v>119</v>
+      </c>
       <c r="V28" s="128"/>
       <c r="W28" s="128"/>
       <c r="X28" s="128"/>
       <c r="Y28" s="129"/>
-      <c r="Z28" s="127"/>
+      <c r="Z28" s="127" t="s">
+        <v>95</v>
+      </c>
       <c r="AA28" s="128"/>
       <c r="AB28" s="128"/>
       <c r="AC28" s="128"/>
       <c r="AD28" s="129"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="60"/>
+      <c r="AE28" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="60" t="s">
+        <v>134</v>
+      </c>
       <c r="AH28" s="65"/>
-      <c r="AI28" s="60"/>
+      <c r="AI28" s="60">
+        <v>40</v>
+      </c>
       <c r="AJ28" s="65"/>
-      <c r="AK28" s="60"/>
+      <c r="AK28" s="60" t="s">
+        <v>30</v>
+      </c>
       <c r="AL28" s="65"/>
       <c r="AM28" s="57"/>
       <c r="AN28" s="58"/>
@@ -9072,10 +9169,14 @@
       <c r="AQ28" s="58"/>
       <c r="AR28" s="58"/>
       <c r="AS28" s="59"/>
-      <c r="AT28" s="60"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="60"/>
-      <c r="AW28" s="61"/>
+      <c r="AT28" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW28" s="65"/>
       <c r="AX28" s="62"/>
       <c r="AY28" s="63"/>
       <c r="AZ28" s="64"/>
@@ -9086,7 +9187,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -9101,7 +9202,7 @@
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
       <c r="O29" s="127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P29" s="128"/>
       <c r="Q29" s="128"/>
@@ -9111,7 +9212,7 @@
       </c>
       <c r="T29" s="65"/>
       <c r="U29" s="127" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="V29" s="128"/>
       <c r="W29" s="128"/>
@@ -9129,7 +9230,7 @@
       </c>
       <c r="AF29" s="65"/>
       <c r="AG29" s="60" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AH29" s="65"/>
       <c r="AI29" s="60">
@@ -9165,7 +9266,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -9180,17 +9281,17 @@
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
       <c r="O30" s="127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P30" s="128"/>
       <c r="Q30" s="128"/>
       <c r="R30" s="129"/>
       <c r="S30" s="60" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="T30" s="65"/>
       <c r="U30" s="127" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V30" s="128"/>
       <c r="W30" s="128"/>
@@ -9244,7 +9345,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -9259,17 +9360,17 @@
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
       <c r="O31" s="127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P31" s="128"/>
       <c r="Q31" s="128"/>
       <c r="R31" s="129"/>
       <c r="S31" s="60" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="T31" s="65"/>
       <c r="U31" s="127" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="V31" s="128"/>
       <c r="W31" s="128"/>
@@ -9291,7 +9392,7 @@
       </c>
       <c r="AH31" s="65"/>
       <c r="AI31" s="60">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AJ31" s="65"/>
       <c r="AK31" s="60" t="s">
@@ -9323,7 +9424,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -9348,7 +9449,7 @@
       </c>
       <c r="T32" s="65"/>
       <c r="U32" s="127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V32" s="128"/>
       <c r="W32" s="128"/>
@@ -9366,7 +9467,7 @@
       </c>
       <c r="AF32" s="65"/>
       <c r="AG32" s="60" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="AH32" s="65"/>
       <c r="AI32" s="60">
@@ -9402,7 +9503,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -9417,7 +9518,7 @@
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
       <c r="O33" s="127" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="P33" s="128"/>
       <c r="Q33" s="128"/>
@@ -9427,7 +9528,7 @@
       </c>
       <c r="T33" s="65"/>
       <c r="U33" s="127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="V33" s="128"/>
       <c r="W33" s="128"/>
@@ -9449,7 +9550,7 @@
       </c>
       <c r="AH33" s="65"/>
       <c r="AI33" s="60">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ33" s="65"/>
       <c r="AK33" s="60" t="s">
@@ -9481,7 +9582,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -9506,7 +9607,7 @@
       </c>
       <c r="T34" s="65"/>
       <c r="U34" s="127" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="V34" s="128"/>
       <c r="W34" s="128"/>
@@ -9575,7 +9676,7 @@
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
       <c r="O35" s="127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P35" s="128"/>
       <c r="Q35" s="128"/>
@@ -9603,11 +9704,11 @@
       </c>
       <c r="AF35" s="65"/>
       <c r="AG35" s="60" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="AH35" s="65"/>
       <c r="AI35" s="60">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AJ35" s="65"/>
       <c r="AK35" s="60" t="s">
@@ -9635,7 +9736,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -9671,7 +9772,7 @@
       <c r="X36" s="128"/>
       <c r="Y36" s="129"/>
       <c r="Z36" s="127" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AA36" s="128"/>
       <c r="AB36" s="128"/>
@@ -9717,8 +9818,8 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>158</v>
+      <c r="B37" s="50" t="s">
+        <v>162</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -9732,45 +9833,29 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="127" t="s">
-        <v>80</v>
-      </c>
+      <c r="O37" s="127"/>
       <c r="P37" s="128"/>
       <c r="Q37" s="128"/>
       <c r="R37" s="129"/>
-      <c r="S37" s="60" t="s">
-        <v>35</v>
-      </c>
+      <c r="S37" s="60"/>
       <c r="T37" s="65"/>
-      <c r="U37" s="127" t="s">
-        <v>159</v>
-      </c>
+      <c r="U37" s="127"/>
       <c r="V37" s="128"/>
       <c r="W37" s="128"/>
       <c r="X37" s="128"/>
       <c r="Y37" s="129"/>
-      <c r="Z37" s="127" t="s">
-        <v>97</v>
-      </c>
+      <c r="Z37" s="127"/>
       <c r="AA37" s="128"/>
       <c r="AB37" s="128"/>
       <c r="AC37" s="128"/>
       <c r="AD37" s="129"/>
-      <c r="AE37" s="60" t="s">
-        <v>29</v>
-      </c>
+      <c r="AE37" s="60"/>
       <c r="AF37" s="65"/>
-      <c r="AG37" s="60" t="s">
-        <v>98</v>
-      </c>
+      <c r="AG37" s="60"/>
       <c r="AH37" s="65"/>
-      <c r="AI37" s="60">
-        <v>128</v>
-      </c>
+      <c r="AI37" s="60"/>
       <c r="AJ37" s="65"/>
-      <c r="AK37" s="60" t="s">
-        <v>30</v>
-      </c>
+      <c r="AK37" s="60"/>
       <c r="AL37" s="65"/>
       <c r="AM37" s="57"/>
       <c r="AN37" s="58"/>
@@ -9779,13 +9864,9 @@
       <c r="AQ37" s="58"/>
       <c r="AR37" s="58"/>
       <c r="AS37" s="59"/>
-      <c r="AT37" s="60" t="s">
-        <v>78</v>
-      </c>
+      <c r="AT37" s="60"/>
       <c r="AU37" s="65"/>
-      <c r="AV37" s="60" t="s">
-        <v>78</v>
-      </c>
+      <c r="AV37" s="60"/>
       <c r="AW37" s="65"/>
       <c r="AX37" s="62"/>
       <c r="AY37" s="63"/>
@@ -9796,8 +9877,8 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>164</v>
+      <c r="B38" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -9815,25 +9896,39 @@
       <c r="P38" s="128"/>
       <c r="Q38" s="128"/>
       <c r="R38" s="129"/>
-      <c r="S38" s="60"/>
+      <c r="S38" s="60" t="s">
+        <v>35</v>
+      </c>
       <c r="T38" s="65"/>
-      <c r="U38" s="127"/>
+      <c r="U38" s="127" t="s">
+        <v>165</v>
+      </c>
       <c r="V38" s="128"/>
       <c r="W38" s="128"/>
       <c r="X38" s="128"/>
       <c r="Y38" s="129"/>
-      <c r="Z38" s="127"/>
+      <c r="Z38" s="127" t="s">
+        <v>97</v>
+      </c>
       <c r="AA38" s="128"/>
       <c r="AB38" s="128"/>
       <c r="AC38" s="128"/>
       <c r="AD38" s="129"/>
-      <c r="AE38" s="60"/>
+      <c r="AE38" s="60" t="s">
+        <v>29</v>
+      </c>
       <c r="AF38" s="65"/>
-      <c r="AG38" s="60"/>
+      <c r="AG38" s="60" t="s">
+        <v>82</v>
+      </c>
       <c r="AH38" s="65"/>
-      <c r="AI38" s="60"/>
+      <c r="AI38" s="60">
+        <v>800</v>
+      </c>
       <c r="AJ38" s="65"/>
-      <c r="AK38" s="60"/>
+      <c r="AK38" s="60" t="s">
+        <v>30</v>
+      </c>
       <c r="AL38" s="65"/>
       <c r="AM38" s="57"/>
       <c r="AN38" s="58"/>
@@ -9842,9 +9937,13 @@
       <c r="AQ38" s="58"/>
       <c r="AR38" s="58"/>
       <c r="AS38" s="59"/>
-      <c r="AT38" s="60"/>
+      <c r="AT38" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="AU38" s="65"/>
-      <c r="AV38" s="60"/>
+      <c r="AV38" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="AW38" s="65"/>
       <c r="AX38" s="62"/>
       <c r="AY38" s="63"/>
@@ -9856,7 +9955,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -9879,7 +9978,7 @@
       </c>
       <c r="T39" s="65"/>
       <c r="U39" s="127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V39" s="128"/>
       <c r="W39" s="128"/>
@@ -9901,7 +10000,7 @@
       </c>
       <c r="AH39" s="65"/>
       <c r="AI39" s="60">
-        <v>800</v>
+        <v>90</v>
       </c>
       <c r="AJ39" s="65"/>
       <c r="AK39" s="60" t="s">
@@ -9932,9 +10031,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -9951,39 +10048,25 @@
       <c r="P40" s="128"/>
       <c r="Q40" s="128"/>
       <c r="R40" s="129"/>
-      <c r="S40" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="T40" s="65"/>
-      <c r="U40" s="127" t="s">
-        <v>168</v>
-      </c>
+      <c r="S40" s="38"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="127"/>
       <c r="V40" s="128"/>
       <c r="W40" s="128"/>
       <c r="X40" s="128"/>
       <c r="Y40" s="129"/>
-      <c r="Z40" s="127" t="s">
-        <v>97</v>
-      </c>
+      <c r="Z40" s="127"/>
       <c r="AA40" s="128"/>
       <c r="AB40" s="128"/>
       <c r="AC40" s="128"/>
       <c r="AD40" s="129"/>
-      <c r="AE40" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="60" t="s">
-        <v>82</v>
-      </c>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="60"/>
       <c r="AH40" s="65"/>
-      <c r="AI40" s="60">
-        <v>90</v>
-      </c>
+      <c r="AI40" s="60"/>
       <c r="AJ40" s="65"/>
-      <c r="AK40" s="60" t="s">
-        <v>30</v>
-      </c>
+      <c r="AK40" s="60"/>
       <c r="AL40" s="65"/>
       <c r="AM40" s="57"/>
       <c r="AN40" s="58"/>
@@ -9992,14 +10075,10 @@
       <c r="AQ40" s="58"/>
       <c r="AR40" s="58"/>
       <c r="AS40" s="59"/>
-      <c r="AT40" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU40" s="65"/>
-      <c r="AV40" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW40" s="65"/>
+      <c r="AT40" s="60"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="60"/>
+      <c r="AW40" s="61"/>
       <c r="AX40" s="62"/>
       <c r="AY40" s="63"/>
       <c r="AZ40" s="64"/>
@@ -10009,7 +10088,9 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -10022,29 +10103,45 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="127"/>
+      <c r="O41" s="127" t="s">
+        <v>92</v>
+      </c>
       <c r="P41" s="128"/>
       <c r="Q41" s="128"/>
       <c r="R41" s="129"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="129"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="129"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="60"/>
+      <c r="S41" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="T41" s="65"/>
+      <c r="U41" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="V41" s="138"/>
+      <c r="W41" s="138"/>
+      <c r="X41" s="138"/>
+      <c r="Y41" s="139"/>
+      <c r="Z41" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA41" s="138"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="138"/>
+      <c r="AD41" s="139"/>
+      <c r="AE41" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="AH41" s="65"/>
-      <c r="AI41" s="60"/>
+      <c r="AI41" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ41" s="65"/>
-      <c r="AK41" s="60"/>
+      <c r="AK41" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="AL41" s="65"/>
       <c r="AM41" s="57"/>
       <c r="AN41" s="58"/>
@@ -10053,10 +10150,14 @@
       <c r="AQ41" s="58"/>
       <c r="AR41" s="58"/>
       <c r="AS41" s="59"/>
-      <c r="AT41" s="60"/>
-      <c r="AU41" s="61"/>
-      <c r="AV41" s="60"/>
-      <c r="AW41" s="61"/>
+      <c r="AT41" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW41" s="65"/>
       <c r="AX41" s="62"/>
       <c r="AY41" s="63"/>
       <c r="AZ41" s="64"/>
@@ -10067,7 +10168,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -10091,20 +10192,20 @@
         <v>94</v>
       </c>
       <c r="T42" s="65"/>
-      <c r="U42" s="131" t="s">
+      <c r="U42" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="V42" s="132"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="131" t="s">
+      <c r="V42" s="138"/>
+      <c r="W42" s="138"/>
+      <c r="X42" s="138"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="AA42" s="132"/>
-      <c r="AB42" s="132"/>
-      <c r="AC42" s="132"/>
-      <c r="AD42" s="133"/>
+      <c r="AA42" s="138"/>
+      <c r="AB42" s="138"/>
+      <c r="AC42" s="138"/>
+      <c r="AD42" s="139"/>
       <c r="AE42" s="60" t="s">
         <v>29</v>
       </c>
@@ -10146,7 +10247,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -10170,20 +10271,20 @@
         <v>94</v>
       </c>
       <c r="T43" s="65"/>
-      <c r="U43" s="131" t="s">
+      <c r="U43" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="V43" s="132"/>
-      <c r="W43" s="132"/>
-      <c r="X43" s="132"/>
-      <c r="Y43" s="133"/>
-      <c r="Z43" s="131" t="s">
+      <c r="V43" s="138"/>
+      <c r="W43" s="138"/>
+      <c r="X43" s="138"/>
+      <c r="Y43" s="139"/>
+      <c r="Z43" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="AA43" s="132"/>
-      <c r="AB43" s="132"/>
-      <c r="AC43" s="132"/>
-      <c r="AD43" s="133"/>
+      <c r="AA43" s="138"/>
+      <c r="AB43" s="138"/>
+      <c r="AC43" s="138"/>
+      <c r="AD43" s="139"/>
       <c r="AE43" s="60" t="s">
         <v>29</v>
       </c>
@@ -10225,7 +10326,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -10249,20 +10350,20 @@
         <v>94</v>
       </c>
       <c r="T44" s="65"/>
-      <c r="U44" s="131" t="s">
+      <c r="U44" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="V44" s="132"/>
-      <c r="W44" s="132"/>
-      <c r="X44" s="132"/>
-      <c r="Y44" s="133"/>
-      <c r="Z44" s="131" t="s">
+      <c r="V44" s="138"/>
+      <c r="W44" s="138"/>
+      <c r="X44" s="138"/>
+      <c r="Y44" s="139"/>
+      <c r="Z44" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="AA44" s="132"/>
-      <c r="AB44" s="132"/>
-      <c r="AC44" s="132"/>
-      <c r="AD44" s="133"/>
+      <c r="AA44" s="138"/>
+      <c r="AB44" s="138"/>
+      <c r="AC44" s="138"/>
+      <c r="AD44" s="139"/>
       <c r="AE44" s="60" t="s">
         <v>29</v>
       </c>
@@ -10299,228 +10400,141 @@
       <c r="AZ44" s="64"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="33">
+      <c r="A45" s="34">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="128"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="T45" s="65"/>
-      <c r="U45" s="131" t="s">
-        <v>78</v>
-      </c>
-      <c r="V45" s="132"/>
-      <c r="W45" s="132"/>
-      <c r="X45" s="132"/>
-      <c r="Y45" s="133"/>
-      <c r="Z45" s="131" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA45" s="132"/>
-      <c r="AB45" s="132"/>
-      <c r="AC45" s="132"/>
-      <c r="AD45" s="133"/>
-      <c r="AE45" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH45" s="65"/>
-      <c r="AI45" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ45" s="65"/>
-      <c r="AK45" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL45" s="65"/>
-      <c r="AM45" s="57"/>
-      <c r="AN45" s="58"/>
-      <c r="AO45" s="58"/>
-      <c r="AP45" s="58"/>
-      <c r="AQ45" s="58"/>
-      <c r="AR45" s="58"/>
-      <c r="AS45" s="59"/>
-      <c r="AT45" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU45" s="65"/>
-      <c r="AV45" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW45" s="65"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="63"/>
-      <c r="AZ45" s="64"/>
-    </row>
-    <row r="46" spans="1:52">
-      <c r="A46" s="34">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="137"/>
-      <c r="V46" s="138"/>
-      <c r="W46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="Y46" s="139"/>
-      <c r="Z46" s="137"/>
-      <c r="AA46" s="138"/>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="138"/>
-      <c r="AD46" s="139"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="76"/>
-      <c r="AG46" s="77"/>
-      <c r="AH46" s="78"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="75"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="75"/>
-      <c r="AM46" s="79"/>
-      <c r="AN46" s="80"/>
-      <c r="AO46" s="80"/>
-      <c r="AP46" s="80"/>
-      <c r="AQ46" s="80"/>
-      <c r="AR46" s="80"/>
-      <c r="AS46" s="81"/>
-      <c r="AT46" s="74"/>
-      <c r="AU46" s="76"/>
-      <c r="AV46" s="74"/>
-      <c r="AW46" s="76"/>
-      <c r="AX46" s="134"/>
-      <c r="AY46" s="135"/>
-      <c r="AZ46" s="136"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="134"/>
+      <c r="V45" s="135"/>
+      <c r="W45" s="135"/>
+      <c r="X45" s="135"/>
+      <c r="Y45" s="136"/>
+      <c r="Z45" s="134"/>
+      <c r="AA45" s="135"/>
+      <c r="AB45" s="135"/>
+      <c r="AC45" s="135"/>
+      <c r="AD45" s="136"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="77"/>
+      <c r="AH45" s="78"/>
+      <c r="AI45" s="74"/>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="74"/>
+      <c r="AL45" s="75"/>
+      <c r="AM45" s="79"/>
+      <c r="AN45" s="80"/>
+      <c r="AO45" s="80"/>
+      <c r="AP45" s="80"/>
+      <c r="AQ45" s="80"/>
+      <c r="AR45" s="80"/>
+      <c r="AS45" s="81"/>
+      <c r="AT45" s="74"/>
+      <c r="AU45" s="76"/>
+      <c r="AV45" s="74"/>
+      <c r="AW45" s="76"/>
+      <c r="AX45" s="131"/>
+      <c r="AY45" s="132"/>
+      <c r="AZ45" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="478">
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AS45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="AV45:AW45"/>
-    <mergeCell ref="AX43:AZ43"/>
+  <mergeCells count="466">
+    <mergeCell ref="AX44:AZ44"/>
     <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="AI44:AJ44"/>
     <mergeCell ref="AK44:AL44"/>
     <mergeCell ref="AM44:AS44"/>
     <mergeCell ref="AT44:AU44"/>
     <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="AX42:AZ42"/>
     <mergeCell ref="AG43:AH43"/>
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AK43:AL43"/>
     <mergeCell ref="AM43:AS43"/>
     <mergeCell ref="AT43:AU43"/>
     <mergeCell ref="AV43:AW43"/>
-    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="AX43:AZ43"/>
     <mergeCell ref="AG42:AH42"/>
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AK42:AL42"/>
     <mergeCell ref="AM42:AS42"/>
     <mergeCell ref="AT42:AU42"/>
     <mergeCell ref="AV42:AW42"/>
-    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="AX40:AZ40"/>
     <mergeCell ref="AG41:AH41"/>
     <mergeCell ref="AI41:AJ41"/>
     <mergeCell ref="AK41:AL41"/>
     <mergeCell ref="AM41:AS41"/>
     <mergeCell ref="AT41:AU41"/>
     <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="Z42:AD42"/>
-    <mergeCell ref="Z43:AD43"/>
-    <mergeCell ref="Z44:AD44"/>
-    <mergeCell ref="Z45:AD45"/>
-    <mergeCell ref="Z41:AD41"/>
-    <mergeCell ref="U42:Y42"/>
-    <mergeCell ref="U43:Y43"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="Z46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AS46"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
     <mergeCell ref="AK40:AL40"/>
     <mergeCell ref="AM40:AS40"/>
     <mergeCell ref="AT40:AU40"/>
     <mergeCell ref="AV40:AW40"/>
-    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="Z41:AD41"/>
+    <mergeCell ref="Z42:AD42"/>
+    <mergeCell ref="Z43:AD43"/>
+    <mergeCell ref="Z44:AD44"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="U42:Y42"/>
+    <mergeCell ref="U43:Y43"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="AV45:AW45"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="Z45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AS45"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AS39"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AV39:AW39"/>
     <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AT38:AU38"/>
+    <mergeCell ref="AV38:AW38"/>
     <mergeCell ref="AX38:AZ38"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="S39:T39"/>
@@ -10529,341 +10543,341 @@
     <mergeCell ref="AE39:AF39"/>
     <mergeCell ref="AG39:AH39"/>
     <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AS39"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AS38"/>
-    <mergeCell ref="AT38:AU38"/>
-    <mergeCell ref="AV38:AW38"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AS37"/>
-    <mergeCell ref="AT37:AU37"/>
-    <mergeCell ref="AV37:AW37"/>
-    <mergeCell ref="AX37:AZ37"/>
     <mergeCell ref="O38:R38"/>
     <mergeCell ref="S38:T38"/>
     <mergeCell ref="U38:Y38"/>
     <mergeCell ref="Z38:AD38"/>
     <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AS38"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AX36:AZ36"/>
     <mergeCell ref="O37:R37"/>
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="U37:Y37"/>
     <mergeCell ref="Z37:AD37"/>
     <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AX37:AZ37"/>
     <mergeCell ref="AG37:AH37"/>
     <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AS37"/>
+    <mergeCell ref="AT37:AU37"/>
+    <mergeCell ref="AV37:AW37"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AI30:AJ30"/>
     <mergeCell ref="O30:R30"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="U30:Y30"/>
     <mergeCell ref="Z30:AD30"/>
     <mergeCell ref="AE30:AF30"/>
     <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
     <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX12:AZ12"/>
     <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX14:AZ14"/>
     <mergeCell ref="AX24:AZ24"/>
     <mergeCell ref="AX23:AZ23"/>
     <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AX25:AZ25"/>
     <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
     <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AM30:AS30"/>
     <mergeCell ref="AI10:AJ10"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AM10:AS10"/>
     <mergeCell ref="AT10:AU10"/>
     <mergeCell ref="AV10:AW10"/>
     <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AK19:AL19"/>
     <mergeCell ref="AX33:AZ33"/>
     <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV21:AW21"/>
     <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
     <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
     <mergeCell ref="AV24:AW24"/>
     <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX17:AZ17"/>
     <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
     <mergeCell ref="AV32:AW32"/>
     <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="AI35:AJ35"/>
     <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
     <mergeCell ref="O34:R34"/>
     <mergeCell ref="S34:T34"/>
     <mergeCell ref="U34:Y34"/>
     <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AE34:AF34"/>
     <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
     <mergeCell ref="AE32:AF32"/>
     <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
     <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
     <mergeCell ref="AM29:AS29"/>
     <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AV28:AW28"/>
     <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM28:AS28"/>
     <mergeCell ref="O26:R26"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="U26:Y26"/>
     <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="O25:R25"/>
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="U25:Y25"/>
     <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
     <mergeCell ref="AM24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
     <mergeCell ref="O24:R24"/>
     <mergeCell ref="S24:T24"/>
     <mergeCell ref="U24:Y24"/>
     <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
     <mergeCell ref="O23:R23"/>
     <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="U14:Y14"/>
     <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="U9:Y9"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:Y11"/>
     <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -10892,28 +10906,24 @@
     <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AV9:AW9"/>
     <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面レイアウト(08_講演会基本情報).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(08_講演会基本情報).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="184">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -1175,6 +1175,19 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会履歴一覧</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1737,6 +1750,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1758,9 +1960,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1777,192 +1976,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1984,6 +1997,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1992,27 +2026,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3089,202 +3102,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="61" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="75" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="61" t="s">
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="55" t="s">
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="60"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
+      <c r="AU1" s="121"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="121"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="121"/>
+      <c r="AZ1" s="122"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="78" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="75" t="s">
+      <c r="J2" s="115"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78" t="s">
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="55" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="61" t="s">
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="63">
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="124">
         <v>39961</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="61" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="61" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="61" t="s">
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="61" t="s">
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="62" t="s">
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="123"/>
+      <c r="AY3" s="123"/>
+      <c r="AZ3" s="123"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -3365,83 +3378,83 @@
       <c r="A9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="81" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="81" t="s">
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="81" t="s">
+      <c r="T9" s="99"/>
+      <c r="U9" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="81" t="s">
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="81" t="s">
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="81" t="s">
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="81" t="s">
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="81" t="s">
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="81" t="s">
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="81" t="s">
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="81" t="s">
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="84" t="s">
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="86"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="60"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -3469,10 +3482,10 @@
       <c r="P10" s="96"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="97"/>
-      <c r="S10" s="87" t="s">
+      <c r="S10" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="89"/>
+      <c r="T10" s="94"/>
       <c r="U10" s="95" t="s">
         <v>53</v>
       </c>
@@ -3487,42 +3500,42 @@
       <c r="AB10" s="96"/>
       <c r="AC10" s="96"/>
       <c r="AD10" s="97"/>
-      <c r="AE10" s="87" t="s">
+      <c r="AE10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="87" t="s">
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="87">
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="70">
         <v>8</v>
       </c>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="87" t="s">
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="100"/>
-      <c r="AT10" s="87" t="s">
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="AU10" s="88"/>
-      <c r="AV10" s="87" t="s">
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="124" t="s">
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AY10" s="125"/>
-      <c r="AZ10" s="126"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="57"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -3544,66 +3557,66 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="90" t="s">
+      <c r="O11" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="93" t="s">
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="90" t="s">
+      <c r="T11" s="69"/>
+      <c r="U11" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="90" t="s">
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="93" t="s">
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="93" t="s">
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="93">
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="64">
         <v>10</v>
       </c>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="93" t="s">
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="93" t="s">
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="93" t="s">
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="107" t="s">
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AY11" s="108"/>
-      <c r="AZ11" s="109"/>
+      <c r="AY11" s="67"/>
+      <c r="AZ11" s="68"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1">
       <c r="A12" s="33">
@@ -3625,68 +3638,68 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="90" t="s">
+      <c r="O12" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="93" t="s">
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="90" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="90" t="s">
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="91"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="87" t="s">
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="93" t="s">
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="93">
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="64">
         <v>20</v>
       </c>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="93" t="s">
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="101" t="s">
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="102"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="102"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="93" t="s">
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="93" t="s">
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="AW12" s="104"/>
-      <c r="AX12" s="107" t="s">
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="AY12" s="108"/>
-      <c r="AZ12" s="109"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="68"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1">
       <c r="A13" s="33">
@@ -3708,68 +3721,68 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="90" t="s">
+      <c r="O13" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93" t="s">
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T13" s="94"/>
-      <c r="U13" s="90" t="s">
+      <c r="T13" s="69"/>
+      <c r="U13" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="90" t="s">
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="93" t="s">
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="93" t="s">
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="93" t="s">
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="93" t="s">
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="101" t="s">
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AN13" s="102"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="102"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="93" t="s">
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="93" t="s">
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="107" t="s">
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AY13" s="108"/>
-      <c r="AZ13" s="109"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="68"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -3789,44 +3802,44 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="101"/>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="104"/>
-      <c r="AX14" s="107"/>
-      <c r="AY14" s="108"/>
-      <c r="AZ14" s="109"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="68"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -3846,44 +3859,44 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="94"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="94"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="94"/>
-      <c r="AV15" s="93"/>
-      <c r="AW15" s="94"/>
-      <c r="AX15" s="107"/>
-      <c r="AY15" s="108"/>
-      <c r="AZ15" s="109"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="68"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -3903,44 +3916,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="107"/>
-      <c r="AY16" s="108"/>
-      <c r="AZ16" s="109"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="68"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -3960,44 +3973,44 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="101"/>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="107"/>
-      <c r="AY17" s="108"/>
-      <c r="AZ17" s="109"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="68"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -4017,44 +4030,44 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="101"/>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="102"/>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="93"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="108"/>
-      <c r="AZ18" s="109"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="68"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -4074,44 +4087,44 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="101"/>
-      <c r="AN19" s="102"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="102"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="93"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="108"/>
-      <c r="AZ19" s="109"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="68"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -4131,44 +4144,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="91"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="105"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="101"/>
-      <c r="AN20" s="102"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="102"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="102"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="108"/>
-      <c r="AZ20" s="109"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="64"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="67"/>
+      <c r="AZ20" s="68"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -4188,44 +4201,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="102"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="102"/>
-      <c r="AQ21" s="102"/>
-      <c r="AR21" s="102"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="93"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="107"/>
-      <c r="AY21" s="108"/>
-      <c r="AZ21" s="109"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="67"/>
+      <c r="AZ21" s="68"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -4245,44 +4258,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="105"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="94"/>
-      <c r="AK22" s="93"/>
-      <c r="AL22" s="94"/>
-      <c r="AM22" s="101"/>
-      <c r="AN22" s="102"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="93"/>
-      <c r="AW22" s="104"/>
-      <c r="AX22" s="107"/>
-      <c r="AY22" s="108"/>
-      <c r="AZ22" s="109"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="68"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -4302,44 +4315,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="104"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="94"/>
-      <c r="AK23" s="93"/>
-      <c r="AL23" s="94"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="102"/>
-      <c r="AO23" s="102"/>
-      <c r="AP23" s="102"/>
-      <c r="AQ23" s="102"/>
-      <c r="AR23" s="102"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="104"/>
-      <c r="AX23" s="107"/>
-      <c r="AY23" s="108"/>
-      <c r="AZ23" s="109"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="68"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -4359,44 +4372,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="91"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="104"/>
-      <c r="AG24" s="105"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="93"/>
-      <c r="AL24" s="94"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="104"/>
-      <c r="AX24" s="107"/>
-      <c r="AY24" s="108"/>
-      <c r="AZ24" s="109"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="68"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -4416,44 +4429,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="91"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="104"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="94"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="102"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="102"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="102"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="93"/>
-      <c r="AW25" s="104"/>
-      <c r="AX25" s="107"/>
-      <c r="AY25" s="108"/>
-      <c r="AZ25" s="109"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="68"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -4473,44 +4486,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="94"/>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="94"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="102"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="93"/>
-      <c r="AW26" s="104"/>
-      <c r="AX26" s="107"/>
-      <c r="AY26" s="108"/>
-      <c r="AZ26" s="109"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="68"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -4530,44 +4543,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="104"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="93"/>
-      <c r="AL27" s="94"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="102"/>
-      <c r="AO27" s="102"/>
-      <c r="AP27" s="102"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="102"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="93"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="93"/>
-      <c r="AW27" s="104"/>
-      <c r="AX27" s="107"/>
-      <c r="AY27" s="108"/>
-      <c r="AZ27" s="109"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="65"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="68"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -4587,44 +4600,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="94"/>
-      <c r="AK28" s="93"/>
-      <c r="AL28" s="94"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="102"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="102"/>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="93"/>
-      <c r="AW28" s="104"/>
-      <c r="AX28" s="107"/>
-      <c r="AY28" s="108"/>
-      <c r="AZ28" s="109"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="67"/>
+      <c r="AZ28" s="68"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -4644,44 +4657,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="91"/>
-      <c r="AC29" s="91"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="93"/>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="102"/>
-      <c r="AO29" s="102"/>
-      <c r="AP29" s="102"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="102"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="93"/>
-      <c r="AW29" s="104"/>
-      <c r="AX29" s="107"/>
-      <c r="AY29" s="108"/>
-      <c r="AZ29" s="109"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="65"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="65"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="67"/>
+      <c r="AZ29" s="68"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -4701,44 +4714,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="94"/>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="94"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="102"/>
-      <c r="AO30" s="102"/>
-      <c r="AP30" s="102"/>
-      <c r="AQ30" s="102"/>
-      <c r="AR30" s="102"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="93"/>
-      <c r="AW30" s="104"/>
-      <c r="AX30" s="107"/>
-      <c r="AY30" s="108"/>
-      <c r="AZ30" s="109"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="65"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="65"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="68"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -4758,44 +4771,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="104"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="94"/>
-      <c r="AI31" s="93"/>
-      <c r="AJ31" s="94"/>
-      <c r="AK31" s="93"/>
-      <c r="AL31" s="94"/>
-      <c r="AM31" s="101"/>
-      <c r="AN31" s="102"/>
-      <c r="AO31" s="102"/>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="93"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="93"/>
-      <c r="AW31" s="104"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="109"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="67"/>
+      <c r="AZ31" s="68"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -4815,44 +4828,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="91"/>
-      <c r="AC32" s="91"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="106"/>
-      <c r="AI32" s="93"/>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="93"/>
-      <c r="AL32" s="94"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="93"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="93"/>
-      <c r="AW32" s="104"/>
-      <c r="AX32" s="107"/>
-      <c r="AY32" s="108"/>
-      <c r="AZ32" s="109"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="68"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -4872,44 +4885,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="93"/>
-      <c r="AJ33" s="94"/>
-      <c r="AK33" s="93"/>
-      <c r="AL33" s="94"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="93"/>
-      <c r="AU33" s="104"/>
-      <c r="AV33" s="93"/>
-      <c r="AW33" s="104"/>
-      <c r="AX33" s="107"/>
-      <c r="AY33" s="108"/>
-      <c r="AZ33" s="109"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="87"/>
+      <c r="AC33" s="87"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="68"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -4929,44 +4942,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="104"/>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="94"/>
-      <c r="AI34" s="93"/>
-      <c r="AJ34" s="94"/>
-      <c r="AK34" s="93"/>
-      <c r="AL34" s="94"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="102"/>
-      <c r="AO34" s="102"/>
-      <c r="AP34" s="102"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="93"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="104"/>
-      <c r="AX34" s="107"/>
-      <c r="AY34" s="108"/>
-      <c r="AZ34" s="109"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="68"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -4986,44 +4999,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="91"/>
-      <c r="AC35" s="91"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="106"/>
-      <c r="AI35" s="93"/>
-      <c r="AJ35" s="94"/>
-      <c r="AK35" s="93"/>
-      <c r="AL35" s="94"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="102"/>
-      <c r="AO35" s="102"/>
-      <c r="AP35" s="102"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="93"/>
-      <c r="AU35" s="104"/>
-      <c r="AV35" s="93"/>
-      <c r="AW35" s="104"/>
-      <c r="AX35" s="107"/>
-      <c r="AY35" s="108"/>
-      <c r="AZ35" s="109"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="88"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="89"/>
+      <c r="AH35" s="90"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="65"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="65"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="68"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -5043,47 +5056,382 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="115"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
-      <c r="AD36" s="115"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="118"/>
-      <c r="AG36" s="119"/>
-      <c r="AH36" s="120"/>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="116"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="122"/>
-      <c r="AO36" s="122"/>
-      <c r="AP36" s="122"/>
-      <c r="AQ36" s="122"/>
-      <c r="AR36" s="122"/>
-      <c r="AS36" s="123"/>
-      <c r="AT36" s="116"/>
-      <c r="AU36" s="118"/>
-      <c r="AV36" s="116"/>
-      <c r="AW36" s="118"/>
-      <c r="AX36" s="110"/>
-      <c r="AY36" s="111"/>
-      <c r="AZ36" s="112"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="77"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="77"/>
+      <c r="AE36" s="78"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="81"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="78"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="78"/>
+      <c r="AL36" s="79"/>
+      <c r="AM36" s="83"/>
+      <c r="AN36" s="84"/>
+      <c r="AO36" s="84"/>
+      <c r="AP36" s="84"/>
+      <c r="AQ36" s="84"/>
+      <c r="AR36" s="84"/>
+      <c r="AS36" s="85"/>
+      <c r="AT36" s="78"/>
+      <c r="AU36" s="80"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="80"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="359">
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AX28:AZ28"/>
     <mergeCell ref="AX10:AZ10"/>
     <mergeCell ref="AX9:AZ9"/>
     <mergeCell ref="AM33:AS33"/>
@@ -5108,341 +5456,6 @@
     <mergeCell ref="AV14:AW14"/>
     <mergeCell ref="AV15:AW15"/>
     <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5459,7 +5472,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -5468,199 +5481,199 @@
       <c r="A1" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="61" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="75" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="61" t="s">
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="55" t="s">
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="60"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
+      <c r="AU1" s="121"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="121"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="121"/>
+      <c r="AZ1" s="122"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="78" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="75" t="s">
+      <c r="J2" s="115"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78" t="s">
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="55" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="61" t="s">
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="63">
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="124">
         <v>41548</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="61" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="61" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="61" t="s">
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="61" t="s">
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="62" t="s">
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="123"/>
+      <c r="AY3" s="123"/>
+      <c r="AZ3" s="123"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6471,6 +6484,12 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="4"/>
+      <c r="AK22" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL22" s="54" t="s">
+        <v>183</v>
+      </c>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
@@ -7349,29 +7368,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7400,199 +7419,199 @@
       <c r="A1" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="61" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="75" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="61" t="s">
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="55" t="s">
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="60"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
+      <c r="AU1" s="121"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="121"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="121"/>
+      <c r="AZ1" s="122"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="78" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="75" t="s">
+      <c r="J2" s="115"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78" t="s">
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="55" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="61" t="s">
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="63">
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="124">
         <v>41548</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="61" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="61" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="61" t="s">
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="61" t="s">
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="62" t="s">
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="123"/>
+      <c r="AY3" s="123"/>
+      <c r="AZ3" s="123"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -7673,83 +7692,83 @@
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="81" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="81" t="s">
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="81" t="s">
+      <c r="T9" s="99"/>
+      <c r="U9" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="81" t="s">
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="81" t="s">
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="81" t="s">
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="81" t="s">
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="81" t="s">
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="81" t="s">
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="81" t="s">
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="81" t="s">
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="84" t="s">
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="86"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="60"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="33">
@@ -7771,12 +7790,12 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="94"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="69"/>
       <c r="U10" s="131"/>
       <c r="V10" s="132"/>
       <c r="W10" s="132"/>
@@ -7787,28 +7806,28 @@
       <c r="AB10" s="132"/>
       <c r="AC10" s="132"/>
       <c r="AD10" s="133"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="104"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="107"/>
-      <c r="AY10" s="108"/>
-      <c r="AZ10" s="109"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="68"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -7836,10 +7855,10 @@
       <c r="P11" s="132"/>
       <c r="Q11" s="132"/>
       <c r="R11" s="133"/>
-      <c r="S11" s="93" t="s">
+      <c r="S11" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="94"/>
+      <c r="T11" s="69"/>
       <c r="U11" s="131" t="s">
         <v>96</v>
       </c>
@@ -7854,40 +7873,40 @@
       <c r="AB11" s="132"/>
       <c r="AC11" s="132"/>
       <c r="AD11" s="133"/>
-      <c r="AE11" s="93" t="s">
+      <c r="AE11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="93" t="s">
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="93">
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="64">
         <v>14</v>
       </c>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="93" t="s">
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="93" t="s">
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="93" t="s">
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="107"/>
-      <c r="AY11" s="108"/>
-      <c r="AZ11" s="109"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="67"/>
+      <c r="AZ11" s="68"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="33">
@@ -7915,10 +7934,10 @@
       <c r="P12" s="132"/>
       <c r="Q12" s="132"/>
       <c r="R12" s="133"/>
-      <c r="S12" s="93" t="s">
+      <c r="S12" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T12" s="94"/>
+      <c r="T12" s="69"/>
       <c r="U12" s="131" t="s">
         <v>136</v>
       </c>
@@ -7933,40 +7952,40 @@
       <c r="AB12" s="132"/>
       <c r="AC12" s="132"/>
       <c r="AD12" s="133"/>
-      <c r="AE12" s="93" t="s">
+      <c r="AE12" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="93" t="s">
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="93" t="s">
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="93" t="s">
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="101"/>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="102"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="102"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="93" t="s">
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="93" t="s">
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="143"/>
-      <c r="AY12" s="108"/>
-      <c r="AZ12" s="109"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="134"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="68"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="33">
@@ -7994,10 +8013,10 @@
       <c r="P13" s="132"/>
       <c r="Q13" s="132"/>
       <c r="R13" s="133"/>
-      <c r="S13" s="93" t="s">
+      <c r="S13" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T13" s="94"/>
+      <c r="T13" s="69"/>
       <c r="U13" s="131" t="s">
         <v>180</v>
       </c>
@@ -8012,42 +8031,42 @@
       <c r="AB13" s="132"/>
       <c r="AC13" s="132"/>
       <c r="AD13" s="133"/>
-      <c r="AE13" s="93" t="s">
+      <c r="AE13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="93" t="s">
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="93" t="s">
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="93" t="s">
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="101" t="s">
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="AN13" s="102"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="102"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="93" t="s">
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="93" t="s">
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="143"/>
-      <c r="AY13" s="108"/>
-      <c r="AZ13" s="109"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="134"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="68"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -8075,10 +8094,10 @@
       <c r="P14" s="132"/>
       <c r="Q14" s="132"/>
       <c r="R14" s="133"/>
-      <c r="S14" s="93" t="s">
+      <c r="S14" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T14" s="94"/>
+      <c r="T14" s="69"/>
       <c r="U14" s="131" t="s">
         <v>158</v>
       </c>
@@ -8093,42 +8112,42 @@
       <c r="AB14" s="132"/>
       <c r="AC14" s="132"/>
       <c r="AD14" s="133"/>
-      <c r="AE14" s="93" t="s">
+      <c r="AE14" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="93" t="s">
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="93">
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="64">
         <v>19</v>
       </c>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="93" t="s">
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="101" t="s">
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="93" t="s">
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="93" t="s">
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="107"/>
-      <c r="AY14" s="108"/>
-      <c r="AZ14" s="109"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="68"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -8156,10 +8175,10 @@
       <c r="P15" s="132"/>
       <c r="Q15" s="132"/>
       <c r="R15" s="133"/>
-      <c r="S15" s="93" t="s">
+      <c r="S15" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T15" s="94"/>
+      <c r="T15" s="69"/>
       <c r="U15" s="131" t="s">
         <v>138</v>
       </c>
@@ -8174,40 +8193,40 @@
       <c r="AB15" s="132"/>
       <c r="AC15" s="132"/>
       <c r="AD15" s="133"/>
-      <c r="AE15" s="93" t="s">
+      <c r="AE15" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="93" t="s">
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="93">
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="64">
         <v>80</v>
       </c>
-      <c r="AJ15" s="94"/>
-      <c r="AK15" s="93" t="s">
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL15" s="94"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="93" t="s">
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU15" s="94"/>
-      <c r="AV15" s="93" t="s">
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AW15" s="94"/>
-      <c r="AX15" s="107"/>
-      <c r="AY15" s="108"/>
-      <c r="AZ15" s="109"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="68"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -8235,10 +8254,10 @@
       <c r="P16" s="132"/>
       <c r="Q16" s="132"/>
       <c r="R16" s="133"/>
-      <c r="S16" s="93" t="s">
+      <c r="S16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="94"/>
+      <c r="T16" s="69"/>
       <c r="U16" s="131" t="s">
         <v>139</v>
       </c>
@@ -8253,40 +8272,40 @@
       <c r="AB16" s="132"/>
       <c r="AC16" s="132"/>
       <c r="AD16" s="133"/>
-      <c r="AE16" s="93" t="s">
+      <c r="AE16" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="93" t="s">
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="93">
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="64">
         <v>10</v>
       </c>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="93" t="s">
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="93" t="s">
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU16" s="94"/>
-      <c r="AV16" s="93" t="s">
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="107"/>
-      <c r="AY16" s="108"/>
-      <c r="AZ16" s="109"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="68"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -8314,10 +8333,10 @@
       <c r="P17" s="132"/>
       <c r="Q17" s="132"/>
       <c r="R17" s="133"/>
-      <c r="S17" s="93" t="s">
+      <c r="S17" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="94"/>
+      <c r="T17" s="69"/>
       <c r="U17" s="131" t="s">
         <v>142</v>
       </c>
@@ -8332,40 +8351,40 @@
       <c r="AB17" s="132"/>
       <c r="AC17" s="132"/>
       <c r="AD17" s="133"/>
-      <c r="AE17" s="93" t="s">
+      <c r="AE17" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="93" t="s">
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="93">
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="64">
         <v>80</v>
       </c>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="93" t="s">
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="101"/>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="93" t="s">
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="93" t="s">
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="107"/>
-      <c r="AY17" s="108"/>
-      <c r="AZ17" s="109"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="68"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -8393,10 +8412,10 @@
       <c r="P18" s="132"/>
       <c r="Q18" s="132"/>
       <c r="R18" s="133"/>
-      <c r="S18" s="93" t="s">
+      <c r="S18" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="94"/>
+      <c r="T18" s="69"/>
       <c r="U18" s="131" t="s">
         <v>143</v>
       </c>
@@ -8411,42 +8430,42 @@
       <c r="AB18" s="132"/>
       <c r="AC18" s="132"/>
       <c r="AD18" s="133"/>
-      <c r="AE18" s="93" t="s">
+      <c r="AE18" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="93" t="s">
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="93">
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="64">
         <v>8</v>
       </c>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="93" t="s">
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="101" t="s">
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="102"/>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="93" t="s">
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="93" t="s">
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW18" s="94"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="108"/>
-      <c r="AZ18" s="109"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="68"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -8474,10 +8493,10 @@
       <c r="P19" s="132"/>
       <c r="Q19" s="132"/>
       <c r="R19" s="133"/>
-      <c r="S19" s="93" t="s">
+      <c r="S19" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="94"/>
+      <c r="T19" s="69"/>
       <c r="U19" s="131" t="s">
         <v>146</v>
       </c>
@@ -8492,42 +8511,42 @@
       <c r="AB19" s="132"/>
       <c r="AC19" s="132"/>
       <c r="AD19" s="133"/>
-      <c r="AE19" s="93" t="s">
+      <c r="AE19" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="93" t="s">
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="93">
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="64">
         <v>8</v>
       </c>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="93" t="s">
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="101" t="s">
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AN19" s="102"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="102"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="93" t="s">
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU19" s="94"/>
-      <c r="AV19" s="93" t="s">
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW19" s="94"/>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="108"/>
-      <c r="AZ19" s="109"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="68"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -8555,10 +8574,10 @@
       <c r="P20" s="132"/>
       <c r="Q20" s="132"/>
       <c r="R20" s="133"/>
-      <c r="S20" s="93" t="s">
+      <c r="S20" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T20" s="94"/>
+      <c r="T20" s="69"/>
       <c r="U20" s="131" t="s">
         <v>148</v>
       </c>
@@ -8573,40 +8592,40 @@
       <c r="AB20" s="132"/>
       <c r="AC20" s="132"/>
       <c r="AD20" s="133"/>
-      <c r="AE20" s="93" t="s">
+      <c r="AE20" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="93" t="s">
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="93">
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="64">
         <v>40</v>
       </c>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="93" t="s">
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="101"/>
-      <c r="AN20" s="102"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="102"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="102"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="93" t="s">
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU20" s="94"/>
-      <c r="AV20" s="93" t="s">
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW20" s="94"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="108"/>
-      <c r="AZ20" s="109"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="67"/>
+      <c r="AZ20" s="68"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -8634,10 +8653,10 @@
       <c r="P21" s="132"/>
       <c r="Q21" s="132"/>
       <c r="R21" s="133"/>
-      <c r="S21" s="93" t="s">
+      <c r="S21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="94"/>
+      <c r="T21" s="69"/>
       <c r="U21" s="131" t="s">
         <v>150</v>
       </c>
@@ -8652,40 +8671,40 @@
       <c r="AB21" s="132"/>
       <c r="AC21" s="132"/>
       <c r="AD21" s="133"/>
-      <c r="AE21" s="93" t="s">
+      <c r="AE21" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="93" t="s">
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="93">
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="64">
         <v>40</v>
       </c>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="93" t="s">
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="102"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="102"/>
-      <c r="AQ21" s="102"/>
-      <c r="AR21" s="102"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="93" t="s">
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU21" s="94"/>
-      <c r="AV21" s="93" t="s">
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW21" s="94"/>
-      <c r="AX21" s="107"/>
-      <c r="AY21" s="108"/>
-      <c r="AZ21" s="109"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="67"/>
+      <c r="AZ21" s="68"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -8713,10 +8732,10 @@
       <c r="P22" s="132"/>
       <c r="Q22" s="132"/>
       <c r="R22" s="133"/>
-      <c r="S22" s="93" t="s">
+      <c r="S22" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="T22" s="94"/>
+      <c r="T22" s="69"/>
       <c r="U22" s="131" t="s">
         <v>110</v>
       </c>
@@ -8731,40 +8750,40 @@
       <c r="AB22" s="132"/>
       <c r="AC22" s="132"/>
       <c r="AD22" s="133"/>
-      <c r="AE22" s="93" t="s">
+      <c r="AE22" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="93" t="s">
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="93">
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="64">
         <v>12</v>
       </c>
-      <c r="AJ22" s="94"/>
-      <c r="AK22" s="93" t="s">
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL22" s="94"/>
-      <c r="AM22" s="101"/>
-      <c r="AN22" s="102"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="93" t="s">
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="93" t="s">
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW22" s="94"/>
-      <c r="AX22" s="107"/>
-      <c r="AY22" s="108"/>
-      <c r="AZ22" s="109"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="68"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -8792,10 +8811,10 @@
       <c r="P23" s="132"/>
       <c r="Q23" s="132"/>
       <c r="R23" s="133"/>
-      <c r="S23" s="93" t="s">
+      <c r="S23" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="T23" s="94"/>
+      <c r="T23" s="69"/>
       <c r="U23" s="131" t="s">
         <v>111</v>
       </c>
@@ -8810,40 +8829,40 @@
       <c r="AB23" s="132"/>
       <c r="AC23" s="132"/>
       <c r="AD23" s="133"/>
-      <c r="AE23" s="93" t="s">
+      <c r="AE23" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="93" t="s">
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="93">
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="64">
         <v>12</v>
       </c>
-      <c r="AJ23" s="94"/>
-      <c r="AK23" s="93" t="s">
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL23" s="94"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="102"/>
-      <c r="AO23" s="102"/>
-      <c r="AP23" s="102"/>
-      <c r="AQ23" s="102"/>
-      <c r="AR23" s="102"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="93" t="s">
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU23" s="94"/>
-      <c r="AV23" s="93" t="s">
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW23" s="94"/>
-      <c r="AX23" s="107"/>
-      <c r="AY23" s="108"/>
-      <c r="AZ23" s="109"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="68"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -8871,10 +8890,10 @@
       <c r="P24" s="132"/>
       <c r="Q24" s="132"/>
       <c r="R24" s="133"/>
-      <c r="S24" s="93" t="s">
+      <c r="S24" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T24" s="94"/>
+      <c r="T24" s="69"/>
       <c r="U24" s="131" t="s">
         <v>114</v>
       </c>
@@ -8889,40 +8908,40 @@
       <c r="AB24" s="132"/>
       <c r="AC24" s="132"/>
       <c r="AD24" s="133"/>
-      <c r="AE24" s="93" t="s">
+      <c r="AE24" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="93" t="s">
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="93">
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="64">
         <v>7</v>
       </c>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="93" t="s">
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL24" s="94"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="93" t="s">
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU24" s="94"/>
-      <c r="AV24" s="93" t="s">
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW24" s="94"/>
-      <c r="AX24" s="107"/>
-      <c r="AY24" s="108"/>
-      <c r="AZ24" s="109"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="68"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -8950,10 +8969,10 @@
       <c r="P25" s="132"/>
       <c r="Q25" s="132"/>
       <c r="R25" s="133"/>
-      <c r="S25" s="93" t="s">
+      <c r="S25" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T25" s="94"/>
+      <c r="T25" s="69"/>
       <c r="U25" s="131" t="s">
         <v>115</v>
       </c>
@@ -8968,40 +8987,40 @@
       <c r="AB25" s="132"/>
       <c r="AC25" s="132"/>
       <c r="AD25" s="133"/>
-      <c r="AE25" s="93" t="s">
+      <c r="AE25" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="93" t="s">
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="93">
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="64">
         <v>7</v>
       </c>
-      <c r="AJ25" s="94"/>
-      <c r="AK25" s="93" t="s">
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="102"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="102"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="102"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="93" t="s">
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU25" s="94"/>
-      <c r="AV25" s="93" t="s">
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW25" s="94"/>
-      <c r="AX25" s="107"/>
-      <c r="AY25" s="108"/>
-      <c r="AZ25" s="109"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="68"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -9029,10 +9048,10 @@
       <c r="P26" s="132"/>
       <c r="Q26" s="132"/>
       <c r="R26" s="133"/>
-      <c r="S26" s="93" t="s">
+      <c r="S26" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T26" s="94"/>
+      <c r="T26" s="69"/>
       <c r="U26" s="131" t="s">
         <v>118</v>
       </c>
@@ -9047,40 +9066,40 @@
       <c r="AB26" s="132"/>
       <c r="AC26" s="132"/>
       <c r="AD26" s="133"/>
-      <c r="AE26" s="93" t="s">
+      <c r="AE26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="93" t="s">
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="93">
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="64">
         <v>10</v>
       </c>
-      <c r="AJ26" s="94"/>
-      <c r="AK26" s="93" t="s">
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL26" s="94"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="102"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="93" t="s">
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU26" s="94"/>
-      <c r="AV26" s="93" t="s">
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW26" s="94"/>
-      <c r="AX26" s="143"/>
-      <c r="AY26" s="108"/>
-      <c r="AZ26" s="109"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="134"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="68"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -9108,10 +9127,10 @@
       <c r="P27" s="132"/>
       <c r="Q27" s="132"/>
       <c r="R27" s="133"/>
-      <c r="S27" s="93" t="s">
+      <c r="S27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T27" s="94"/>
+      <c r="T27" s="69"/>
       <c r="U27" s="131" t="s">
         <v>121</v>
       </c>
@@ -9126,40 +9145,40 @@
       <c r="AB27" s="132"/>
       <c r="AC27" s="132"/>
       <c r="AD27" s="133"/>
-      <c r="AE27" s="93" t="s">
+      <c r="AE27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="93" t="s">
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="93">
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="64">
         <v>10</v>
       </c>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="93" t="s">
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL27" s="94"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="102"/>
-      <c r="AO27" s="102"/>
-      <c r="AP27" s="102"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="102"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="93" t="s">
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="93" t="s">
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW27" s="94"/>
-      <c r="AX27" s="107"/>
-      <c r="AY27" s="108"/>
-      <c r="AZ27" s="109"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="68"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -9181,12 +9200,12 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="94"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="69"/>
       <c r="U28" s="131"/>
       <c r="V28" s="132"/>
       <c r="W28" s="132"/>
@@ -9197,28 +9216,28 @@
       <c r="AB28" s="132"/>
       <c r="AC28" s="132"/>
       <c r="AD28" s="133"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="94"/>
-      <c r="AK28" s="93"/>
-      <c r="AL28" s="94"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="102"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="102"/>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="93"/>
-      <c r="AW28" s="104"/>
-      <c r="AX28" s="107"/>
-      <c r="AY28" s="108"/>
-      <c r="AZ28" s="109"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="67"/>
+      <c r="AZ28" s="68"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -9246,10 +9265,10 @@
       <c r="P29" s="132"/>
       <c r="Q29" s="132"/>
       <c r="R29" s="133"/>
-      <c r="S29" s="93" t="s">
+      <c r="S29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="94"/>
+      <c r="T29" s="69"/>
       <c r="U29" s="131" t="s">
         <v>119</v>
       </c>
@@ -9264,40 +9283,40 @@
       <c r="AB29" s="132"/>
       <c r="AC29" s="132"/>
       <c r="AD29" s="133"/>
-      <c r="AE29" s="93" t="s">
+      <c r="AE29" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="93" t="s">
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="93">
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="64">
         <v>40</v>
       </c>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="93" t="s">
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="102"/>
-      <c r="AO29" s="102"/>
-      <c r="AP29" s="102"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="102"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="93" t="s">
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="93" t="s">
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="107"/>
-      <c r="AY29" s="108"/>
-      <c r="AZ29" s="109"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="67"/>
+      <c r="AZ29" s="68"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -9325,10 +9344,10 @@
       <c r="P30" s="132"/>
       <c r="Q30" s="132"/>
       <c r="R30" s="133"/>
-      <c r="S30" s="93" t="s">
+      <c r="S30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T30" s="94"/>
+      <c r="T30" s="69"/>
       <c r="U30" s="131" t="s">
         <v>123</v>
       </c>
@@ -9343,40 +9362,40 @@
       <c r="AB30" s="132"/>
       <c r="AC30" s="132"/>
       <c r="AD30" s="133"/>
-      <c r="AE30" s="93" t="s">
+      <c r="AE30" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="93" t="s">
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AH30" s="94"/>
-      <c r="AI30" s="93">
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="64">
         <v>40</v>
       </c>
-      <c r="AJ30" s="94"/>
-      <c r="AK30" s="93" t="s">
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL30" s="94"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="102"/>
-      <c r="AO30" s="102"/>
-      <c r="AP30" s="102"/>
-      <c r="AQ30" s="102"/>
-      <c r="AR30" s="102"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="93" t="s">
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU30" s="94"/>
-      <c r="AV30" s="93" t="s">
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW30" s="94"/>
-      <c r="AX30" s="107"/>
-      <c r="AY30" s="108"/>
-      <c r="AZ30" s="109"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="68"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -9404,10 +9423,10 @@
       <c r="P31" s="132"/>
       <c r="Q31" s="132"/>
       <c r="R31" s="133"/>
-      <c r="S31" s="93" t="s">
+      <c r="S31" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T31" s="94"/>
+      <c r="T31" s="69"/>
       <c r="U31" s="131" t="s">
         <v>126</v>
       </c>
@@ -9422,40 +9441,40 @@
       <c r="AB31" s="132"/>
       <c r="AC31" s="132"/>
       <c r="AD31" s="133"/>
-      <c r="AE31" s="93" t="s">
+      <c r="AE31" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="93" t="s">
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AH31" s="94"/>
-      <c r="AI31" s="93">
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="64">
         <v>40</v>
       </c>
-      <c r="AJ31" s="94"/>
-      <c r="AK31" s="93" t="s">
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL31" s="94"/>
-      <c r="AM31" s="101"/>
-      <c r="AN31" s="102"/>
-      <c r="AO31" s="102"/>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="93" t="s">
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU31" s="94"/>
-      <c r="AV31" s="93" t="s">
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW31" s="94"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="109"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="67"/>
+      <c r="AZ31" s="68"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -9483,10 +9502,10 @@
       <c r="P32" s="132"/>
       <c r="Q32" s="132"/>
       <c r="R32" s="133"/>
-      <c r="S32" s="93" t="s">
+      <c r="S32" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="94"/>
+      <c r="T32" s="69"/>
       <c r="U32" s="131" t="s">
         <v>130</v>
       </c>
@@ -9501,40 +9520,40 @@
       <c r="AB32" s="132"/>
       <c r="AC32" s="132"/>
       <c r="AD32" s="133"/>
-      <c r="AE32" s="93" t="s">
+      <c r="AE32" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="93" t="s">
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="93">
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="64">
         <v>150</v>
       </c>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="93" t="s">
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL32" s="94"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="93" t="s">
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU32" s="94"/>
-      <c r="AV32" s="93" t="s">
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW32" s="94"/>
-      <c r="AX32" s="107"/>
-      <c r="AY32" s="108"/>
-      <c r="AZ32" s="109"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="68"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -9562,10 +9581,10 @@
       <c r="P33" s="132"/>
       <c r="Q33" s="132"/>
       <c r="R33" s="133"/>
-      <c r="S33" s="93" t="s">
+      <c r="S33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T33" s="94"/>
+      <c r="T33" s="69"/>
       <c r="U33" s="131" t="s">
         <v>131</v>
       </c>
@@ -9580,40 +9599,40 @@
       <c r="AB33" s="132"/>
       <c r="AC33" s="132"/>
       <c r="AD33" s="133"/>
-      <c r="AE33" s="93" t="s">
+      <c r="AE33" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="93" t="s">
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="93">
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="64">
         <v>150</v>
       </c>
-      <c r="AJ33" s="94"/>
-      <c r="AK33" s="93" t="s">
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL33" s="94"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="93" t="s">
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU33" s="94"/>
-      <c r="AV33" s="93" t="s">
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW33" s="94"/>
-      <c r="AX33" s="107"/>
-      <c r="AY33" s="108"/>
-      <c r="AZ33" s="109"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="68"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -9641,10 +9660,10 @@
       <c r="P34" s="132"/>
       <c r="Q34" s="132"/>
       <c r="R34" s="133"/>
-      <c r="S34" s="93" t="s">
+      <c r="S34" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T34" s="94"/>
+      <c r="T34" s="69"/>
       <c r="U34" s="131" t="s">
         <v>133</v>
       </c>
@@ -9659,40 +9678,40 @@
       <c r="AB34" s="132"/>
       <c r="AC34" s="132"/>
       <c r="AD34" s="133"/>
-      <c r="AE34" s="93" t="s">
+      <c r="AE34" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="93" t="s">
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH34" s="94"/>
-      <c r="AI34" s="93">
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="64">
         <v>20</v>
       </c>
-      <c r="AJ34" s="94"/>
-      <c r="AK34" s="93" t="s">
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL34" s="94"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="102"/>
-      <c r="AO34" s="102"/>
-      <c r="AP34" s="102"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="93" t="s">
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU34" s="94"/>
-      <c r="AV34" s="93" t="s">
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW34" s="94"/>
-      <c r="AX34" s="107"/>
-      <c r="AY34" s="108"/>
-      <c r="AZ34" s="109"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="68"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -9720,10 +9739,10 @@
       <c r="P35" s="132"/>
       <c r="Q35" s="132"/>
       <c r="R35" s="133"/>
-      <c r="S35" s="93" t="s">
+      <c r="S35" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T35" s="94"/>
+      <c r="T35" s="69"/>
       <c r="U35" s="131" t="s">
         <v>152</v>
       </c>
@@ -9738,40 +9757,40 @@
       <c r="AB35" s="132"/>
       <c r="AC35" s="132"/>
       <c r="AD35" s="133"/>
-      <c r="AE35" s="93" t="s">
+      <c r="AE35" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="93" t="s">
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AH35" s="94"/>
-      <c r="AI35" s="93">
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="64">
         <v>20</v>
       </c>
-      <c r="AJ35" s="94"/>
-      <c r="AK35" s="93" t="s">
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL35" s="94"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="102"/>
-      <c r="AO35" s="102"/>
-      <c r="AP35" s="102"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="93" t="s">
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU35" s="94"/>
-      <c r="AV35" s="93" t="s">
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW35" s="94"/>
-      <c r="AX35" s="107"/>
-      <c r="AY35" s="108"/>
-      <c r="AZ35" s="109"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="68"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="33">
@@ -9799,10 +9818,10 @@
       <c r="P36" s="132"/>
       <c r="Q36" s="132"/>
       <c r="R36" s="133"/>
-      <c r="S36" s="93" t="s">
+      <c r="S36" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T36" s="94"/>
+      <c r="T36" s="69"/>
       <c r="U36" s="131" t="s">
         <v>154</v>
       </c>
@@ -9817,40 +9836,40 @@
       <c r="AB36" s="132"/>
       <c r="AC36" s="132"/>
       <c r="AD36" s="133"/>
-      <c r="AE36" s="93" t="s">
+      <c r="AE36" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF36" s="94"/>
-      <c r="AG36" s="93" t="s">
+      <c r="AF36" s="69"/>
+      <c r="AG36" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="AH36" s="94"/>
-      <c r="AI36" s="93">
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="64">
         <v>128</v>
       </c>
-      <c r="AJ36" s="94"/>
-      <c r="AK36" s="93" t="s">
+      <c r="AJ36" s="69"/>
+      <c r="AK36" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="102"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="93" t="s">
+      <c r="AL36" s="69"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU36" s="94"/>
-      <c r="AV36" s="93" t="s">
+      <c r="AU36" s="69"/>
+      <c r="AV36" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW36" s="94"/>
-      <c r="AX36" s="107"/>
-      <c r="AY36" s="108"/>
-      <c r="AZ36" s="109"/>
+      <c r="AW36" s="69"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="68"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="33">
@@ -9878,10 +9897,10 @@
       <c r="P37" s="132"/>
       <c r="Q37" s="132"/>
       <c r="R37" s="133"/>
-      <c r="S37" s="93" t="s">
+      <c r="S37" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T37" s="94"/>
+      <c r="T37" s="69"/>
       <c r="U37" s="131" t="s">
         <v>156</v>
       </c>
@@ -9896,40 +9915,40 @@
       <c r="AB37" s="132"/>
       <c r="AC37" s="132"/>
       <c r="AD37" s="133"/>
-      <c r="AE37" s="93" t="s">
+      <c r="AE37" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="93" t="s">
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="AH37" s="94"/>
-      <c r="AI37" s="93">
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="64">
         <v>128</v>
       </c>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="93" t="s">
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL37" s="94"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="102"/>
-      <c r="AO37" s="102"/>
-      <c r="AP37" s="102"/>
-      <c r="AQ37" s="102"/>
-      <c r="AR37" s="102"/>
-      <c r="AS37" s="103"/>
-      <c r="AT37" s="93" t="s">
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="62"/>
+      <c r="AO37" s="62"/>
+      <c r="AP37" s="62"/>
+      <c r="AQ37" s="62"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="63"/>
+      <c r="AT37" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU37" s="94"/>
-      <c r="AV37" s="93" t="s">
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW37" s="94"/>
-      <c r="AX37" s="107"/>
-      <c r="AY37" s="108"/>
-      <c r="AZ37" s="109"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="66"/>
+      <c r="AY37" s="67"/>
+      <c r="AZ37" s="68"/>
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="33">
@@ -9955,8 +9974,8 @@
       <c r="P38" s="132"/>
       <c r="Q38" s="132"/>
       <c r="R38" s="133"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="94"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="69"/>
       <c r="U38" s="131"/>
       <c r="V38" s="132"/>
       <c r="W38" s="132"/>
@@ -9967,28 +9986,28 @@
       <c r="AB38" s="132"/>
       <c r="AC38" s="132"/>
       <c r="AD38" s="133"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="93"/>
-      <c r="AH38" s="94"/>
-      <c r="AI38" s="93"/>
-      <c r="AJ38" s="94"/>
-      <c r="AK38" s="93"/>
-      <c r="AL38" s="94"/>
-      <c r="AM38" s="101"/>
-      <c r="AN38" s="102"/>
-      <c r="AO38" s="102"/>
-      <c r="AP38" s="102"/>
-      <c r="AQ38" s="102"/>
-      <c r="AR38" s="102"/>
-      <c r="AS38" s="103"/>
-      <c r="AT38" s="93"/>
-      <c r="AU38" s="94"/>
-      <c r="AV38" s="93"/>
-      <c r="AW38" s="94"/>
-      <c r="AX38" s="107"/>
-      <c r="AY38" s="108"/>
-      <c r="AZ38" s="109"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="69"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="69"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="64"/>
+      <c r="AL38" s="69"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="62"/>
+      <c r="AO38" s="62"/>
+      <c r="AP38" s="62"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="63"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="64"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="67"/>
+      <c r="AZ38" s="68"/>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="33">
@@ -10014,10 +10033,10 @@
       <c r="P39" s="132"/>
       <c r="Q39" s="132"/>
       <c r="R39" s="133"/>
-      <c r="S39" s="93" t="s">
+      <c r="S39" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T39" s="94"/>
+      <c r="T39" s="69"/>
       <c r="U39" s="131" t="s">
         <v>164</v>
       </c>
@@ -10032,40 +10051,40 @@
       <c r="AB39" s="132"/>
       <c r="AC39" s="132"/>
       <c r="AD39" s="133"/>
-      <c r="AE39" s="93" t="s">
+      <c r="AE39" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF39" s="94"/>
-      <c r="AG39" s="93" t="s">
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AH39" s="94"/>
-      <c r="AI39" s="93">
+      <c r="AH39" s="69"/>
+      <c r="AI39" s="64">
         <v>800</v>
       </c>
-      <c r="AJ39" s="94"/>
-      <c r="AK39" s="93" t="s">
+      <c r="AJ39" s="69"/>
+      <c r="AK39" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL39" s="94"/>
-      <c r="AM39" s="101"/>
-      <c r="AN39" s="102"/>
-      <c r="AO39" s="102"/>
-      <c r="AP39" s="102"/>
-      <c r="AQ39" s="102"/>
-      <c r="AR39" s="102"/>
-      <c r="AS39" s="103"/>
-      <c r="AT39" s="93" t="s">
+      <c r="AL39" s="69"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="62"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU39" s="94"/>
-      <c r="AV39" s="93" t="s">
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW39" s="94"/>
-      <c r="AX39" s="107"/>
-      <c r="AY39" s="108"/>
-      <c r="AZ39" s="109"/>
+      <c r="AW39" s="69"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="67"/>
+      <c r="AZ39" s="68"/>
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="33">
@@ -10091,10 +10110,10 @@
       <c r="P40" s="132"/>
       <c r="Q40" s="132"/>
       <c r="R40" s="133"/>
-      <c r="S40" s="93" t="s">
+      <c r="S40" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="T40" s="94"/>
+      <c r="T40" s="69"/>
       <c r="U40" s="131" t="s">
         <v>165</v>
       </c>
@@ -10109,40 +10128,40 @@
       <c r="AB40" s="132"/>
       <c r="AC40" s="132"/>
       <c r="AD40" s="133"/>
-      <c r="AE40" s="93" t="s">
+      <c r="AE40" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF40" s="94"/>
-      <c r="AG40" s="93" t="s">
+      <c r="AF40" s="69"/>
+      <c r="AG40" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AH40" s="94"/>
-      <c r="AI40" s="93">
+      <c r="AH40" s="69"/>
+      <c r="AI40" s="64">
         <v>90</v>
       </c>
-      <c r="AJ40" s="94"/>
-      <c r="AK40" s="93" t="s">
+      <c r="AJ40" s="69"/>
+      <c r="AK40" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AL40" s="94"/>
-      <c r="AM40" s="101"/>
-      <c r="AN40" s="102"/>
-      <c r="AO40" s="102"/>
-      <c r="AP40" s="102"/>
-      <c r="AQ40" s="102"/>
-      <c r="AR40" s="102"/>
-      <c r="AS40" s="103"/>
-      <c r="AT40" s="93" t="s">
+      <c r="AL40" s="69"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="62"/>
+      <c r="AP40" s="62"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU40" s="94"/>
-      <c r="AV40" s="93" t="s">
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW40" s="94"/>
-      <c r="AX40" s="107"/>
-      <c r="AY40" s="108"/>
-      <c r="AZ40" s="109"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="66"/>
+      <c r="AY40" s="67"/>
+      <c r="AZ40" s="68"/>
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="33">
@@ -10180,26 +10199,26 @@
       <c r="AD41" s="133"/>
       <c r="AE41" s="38"/>
       <c r="AF41" s="39"/>
-      <c r="AG41" s="93"/>
-      <c r="AH41" s="94"/>
-      <c r="AI41" s="93"/>
-      <c r="AJ41" s="94"/>
-      <c r="AK41" s="93"/>
-      <c r="AL41" s="94"/>
-      <c r="AM41" s="101"/>
-      <c r="AN41" s="102"/>
-      <c r="AO41" s="102"/>
-      <c r="AP41" s="102"/>
-      <c r="AQ41" s="102"/>
-      <c r="AR41" s="102"/>
-      <c r="AS41" s="103"/>
-      <c r="AT41" s="93"/>
-      <c r="AU41" s="104"/>
-      <c r="AV41" s="93"/>
-      <c r="AW41" s="104"/>
-      <c r="AX41" s="107"/>
-      <c r="AY41" s="108"/>
-      <c r="AZ41" s="109"/>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="69"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="69"/>
+      <c r="AK41" s="64"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="62"/>
+      <c r="AO41" s="62"/>
+      <c r="AP41" s="62"/>
+      <c r="AQ41" s="62"/>
+      <c r="AR41" s="62"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="64"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="67"/>
+      <c r="AZ41" s="68"/>
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="33">
@@ -10227,58 +10246,58 @@
       <c r="P42" s="132"/>
       <c r="Q42" s="132"/>
       <c r="R42" s="133"/>
-      <c r="S42" s="93" t="s">
+      <c r="S42" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="T42" s="94"/>
-      <c r="U42" s="134" t="s">
+      <c r="T42" s="69"/>
+      <c r="U42" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="V42" s="135"/>
-      <c r="W42" s="135"/>
-      <c r="X42" s="135"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="134" t="s">
+      <c r="V42" s="142"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="142"/>
+      <c r="Y42" s="143"/>
+      <c r="Z42" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="AA42" s="135"/>
-      <c r="AB42" s="135"/>
-      <c r="AC42" s="135"/>
-      <c r="AD42" s="136"/>
-      <c r="AE42" s="93" t="s">
+      <c r="AA42" s="142"/>
+      <c r="AB42" s="142"/>
+      <c r="AC42" s="142"/>
+      <c r="AD42" s="143"/>
+      <c r="AE42" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="93" t="s">
+      <c r="AF42" s="69"/>
+      <c r="AG42" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AH42" s="94"/>
-      <c r="AI42" s="93" t="s">
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AJ42" s="94"/>
-      <c r="AK42" s="93" t="s">
+      <c r="AJ42" s="69"/>
+      <c r="AK42" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AL42" s="94"/>
-      <c r="AM42" s="101"/>
-      <c r="AN42" s="102"/>
-      <c r="AO42" s="102"/>
-      <c r="AP42" s="102"/>
-      <c r="AQ42" s="102"/>
-      <c r="AR42" s="102"/>
-      <c r="AS42" s="103"/>
-      <c r="AT42" s="93" t="s">
+      <c r="AL42" s="69"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="62"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="63"/>
+      <c r="AT42" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU42" s="94"/>
-      <c r="AV42" s="93" t="s">
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW42" s="94"/>
-      <c r="AX42" s="107"/>
-      <c r="AY42" s="108"/>
-      <c r="AZ42" s="109"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="67"/>
+      <c r="AZ42" s="68"/>
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="33">
@@ -10306,58 +10325,58 @@
       <c r="P43" s="132"/>
       <c r="Q43" s="132"/>
       <c r="R43" s="133"/>
-      <c r="S43" s="93" t="s">
+      <c r="S43" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="T43" s="94"/>
-      <c r="U43" s="134" t="s">
+      <c r="T43" s="69"/>
+      <c r="U43" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="V43" s="135"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="134" t="s">
+      <c r="V43" s="142"/>
+      <c r="W43" s="142"/>
+      <c r="X43" s="142"/>
+      <c r="Y43" s="143"/>
+      <c r="Z43" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="AA43" s="135"/>
-      <c r="AB43" s="135"/>
-      <c r="AC43" s="135"/>
-      <c r="AD43" s="136"/>
-      <c r="AE43" s="93" t="s">
+      <c r="AA43" s="142"/>
+      <c r="AB43" s="142"/>
+      <c r="AC43" s="142"/>
+      <c r="AD43" s="143"/>
+      <c r="AE43" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF43" s="94"/>
-      <c r="AG43" s="93" t="s">
+      <c r="AF43" s="69"/>
+      <c r="AG43" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AH43" s="94"/>
-      <c r="AI43" s="93" t="s">
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AJ43" s="94"/>
-      <c r="AK43" s="93" t="s">
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AL43" s="94"/>
-      <c r="AM43" s="101"/>
-      <c r="AN43" s="102"/>
-      <c r="AO43" s="102"/>
-      <c r="AP43" s="102"/>
-      <c r="AQ43" s="102"/>
-      <c r="AR43" s="102"/>
-      <c r="AS43" s="103"/>
-      <c r="AT43" s="93" t="s">
+      <c r="AL43" s="69"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="62"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="63"/>
+      <c r="AT43" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU43" s="94"/>
-      <c r="AV43" s="93" t="s">
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW43" s="94"/>
-      <c r="AX43" s="107"/>
-      <c r="AY43" s="108"/>
-      <c r="AZ43" s="109"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="68"/>
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="33">
@@ -10385,58 +10404,58 @@
       <c r="P44" s="132"/>
       <c r="Q44" s="132"/>
       <c r="R44" s="133"/>
-      <c r="S44" s="93" t="s">
+      <c r="S44" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="T44" s="94"/>
-      <c r="U44" s="134" t="s">
+      <c r="T44" s="69"/>
+      <c r="U44" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="V44" s="135"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="136"/>
-      <c r="Z44" s="134" t="s">
+      <c r="V44" s="142"/>
+      <c r="W44" s="142"/>
+      <c r="X44" s="142"/>
+      <c r="Y44" s="143"/>
+      <c r="Z44" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="AA44" s="135"/>
-      <c r="AB44" s="135"/>
-      <c r="AC44" s="135"/>
-      <c r="AD44" s="136"/>
-      <c r="AE44" s="93" t="s">
+      <c r="AA44" s="142"/>
+      <c r="AB44" s="142"/>
+      <c r="AC44" s="142"/>
+      <c r="AD44" s="143"/>
+      <c r="AE44" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF44" s="94"/>
-      <c r="AG44" s="93" t="s">
+      <c r="AF44" s="69"/>
+      <c r="AG44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AH44" s="94"/>
-      <c r="AI44" s="93" t="s">
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AJ44" s="94"/>
-      <c r="AK44" s="93" t="s">
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AL44" s="94"/>
-      <c r="AM44" s="101"/>
-      <c r="AN44" s="102"/>
-      <c r="AO44" s="102"/>
-      <c r="AP44" s="102"/>
-      <c r="AQ44" s="102"/>
-      <c r="AR44" s="102"/>
-      <c r="AS44" s="103"/>
-      <c r="AT44" s="93" t="s">
+      <c r="AL44" s="69"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="62"/>
+      <c r="AP44" s="62"/>
+      <c r="AQ44" s="62"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="63"/>
+      <c r="AT44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU44" s="94"/>
-      <c r="AV44" s="93" t="s">
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW44" s="94"/>
-      <c r="AX44" s="107"/>
-      <c r="AY44" s="108"/>
-      <c r="AZ44" s="109"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="66"/>
+      <c r="AY44" s="67"/>
+      <c r="AZ44" s="68"/>
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="33">
@@ -10464,58 +10483,58 @@
       <c r="P45" s="132"/>
       <c r="Q45" s="132"/>
       <c r="R45" s="133"/>
-      <c r="S45" s="93" t="s">
+      <c r="S45" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="T45" s="94"/>
-      <c r="U45" s="134" t="s">
+      <c r="T45" s="69"/>
+      <c r="U45" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="V45" s="135"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="136"/>
-      <c r="Z45" s="134" t="s">
+      <c r="V45" s="142"/>
+      <c r="W45" s="142"/>
+      <c r="X45" s="142"/>
+      <c r="Y45" s="143"/>
+      <c r="Z45" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="AA45" s="135"/>
-      <c r="AB45" s="135"/>
-      <c r="AC45" s="135"/>
-      <c r="AD45" s="136"/>
-      <c r="AE45" s="93" t="s">
+      <c r="AA45" s="142"/>
+      <c r="AB45" s="142"/>
+      <c r="AC45" s="142"/>
+      <c r="AD45" s="143"/>
+      <c r="AE45" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF45" s="94"/>
-      <c r="AG45" s="93" t="s">
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AH45" s="94"/>
-      <c r="AI45" s="93" t="s">
+      <c r="AH45" s="69"/>
+      <c r="AI45" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AJ45" s="94"/>
-      <c r="AK45" s="93" t="s">
+      <c r="AJ45" s="69"/>
+      <c r="AK45" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AL45" s="94"/>
-      <c r="AM45" s="101"/>
-      <c r="AN45" s="102"/>
-      <c r="AO45" s="102"/>
-      <c r="AP45" s="102"/>
-      <c r="AQ45" s="102"/>
-      <c r="AR45" s="102"/>
-      <c r="AS45" s="103"/>
-      <c r="AT45" s="93" t="s">
+      <c r="AL45" s="69"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="62"/>
+      <c r="AO45" s="62"/>
+      <c r="AP45" s="62"/>
+      <c r="AQ45" s="62"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="63"/>
+      <c r="AT45" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AU45" s="94"/>
-      <c r="AV45" s="93" t="s">
+      <c r="AU45" s="69"/>
+      <c r="AV45" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AW45" s="94"/>
-      <c r="AX45" s="107"/>
-      <c r="AY45" s="108"/>
-      <c r="AZ45" s="109"/>
+      <c r="AW45" s="69"/>
+      <c r="AX45" s="66"/>
+      <c r="AY45" s="67"/>
+      <c r="AZ45" s="68"/>
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="34">
@@ -10535,93 +10554,452 @@
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="27"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="115"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="140"/>
-      <c r="V46" s="141"/>
-      <c r="W46" s="141"/>
-      <c r="X46" s="141"/>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="140"/>
-      <c r="AA46" s="141"/>
-      <c r="AB46" s="141"/>
-      <c r="AC46" s="141"/>
-      <c r="AD46" s="142"/>
-      <c r="AE46" s="116"/>
-      <c r="AF46" s="118"/>
-      <c r="AG46" s="119"/>
-      <c r="AH46" s="120"/>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="116"/>
-      <c r="AL46" s="117"/>
-      <c r="AM46" s="121"/>
-      <c r="AN46" s="122"/>
-      <c r="AO46" s="122"/>
-      <c r="AP46" s="122"/>
-      <c r="AQ46" s="122"/>
-      <c r="AR46" s="122"/>
-      <c r="AS46" s="123"/>
-      <c r="AT46" s="116"/>
-      <c r="AU46" s="118"/>
-      <c r="AV46" s="116"/>
-      <c r="AW46" s="118"/>
-      <c r="AX46" s="137"/>
-      <c r="AY46" s="138"/>
-      <c r="AZ46" s="139"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="138"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="139"/>
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="138"/>
+      <c r="AA46" s="139"/>
+      <c r="AB46" s="139"/>
+      <c r="AC46" s="139"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="78"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="81"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="78"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="78"/>
+      <c r="AL46" s="79"/>
+      <c r="AM46" s="83"/>
+      <c r="AN46" s="84"/>
+      <c r="AO46" s="84"/>
+      <c r="AP46" s="84"/>
+      <c r="AQ46" s="84"/>
+      <c r="AR46" s="84"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="78"/>
+      <c r="AU46" s="80"/>
+      <c r="AV46" s="78"/>
+      <c r="AW46" s="80"/>
+      <c r="AX46" s="135"/>
+      <c r="AY46" s="136"/>
+      <c r="AZ46" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="478">
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AS45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="AV45:AW45"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AT43:AU43"/>
+    <mergeCell ref="AV43:AW43"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AS42"/>
+    <mergeCell ref="AT42:AU42"/>
+    <mergeCell ref="AV42:AW42"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AS41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="Z41:AD41"/>
+    <mergeCell ref="U42:Y42"/>
+    <mergeCell ref="U43:Y43"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="Z46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AS46"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="Z42:AD42"/>
+    <mergeCell ref="Z43:AD43"/>
+    <mergeCell ref="Z44:AD44"/>
+    <mergeCell ref="Z45:AD45"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AS40"/>
+    <mergeCell ref="AT40:AU40"/>
+    <mergeCell ref="AV40:AW40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="AT39:AU39"/>
+    <mergeCell ref="AV39:AW39"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:Y39"/>
+    <mergeCell ref="Z39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AS39"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AS37"/>
+    <mergeCell ref="AT37:AU37"/>
+    <mergeCell ref="AV37:AW37"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:Y38"/>
+    <mergeCell ref="Z38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AS38"/>
+    <mergeCell ref="AT38:AU38"/>
+    <mergeCell ref="AV38:AW38"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
@@ -10646,414 +11024,55 @@
     <mergeCell ref="U14:Y14"/>
     <mergeCell ref="Z14:AD14"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX28:AZ28"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="U9:Y9"/>
     <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AS37"/>
-    <mergeCell ref="AT37:AU37"/>
-    <mergeCell ref="AV37:AW37"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:Y38"/>
-    <mergeCell ref="Z38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AS38"/>
-    <mergeCell ref="AT38:AU38"/>
-    <mergeCell ref="AV38:AW38"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="Z37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AS40"/>
-    <mergeCell ref="AT40:AU40"/>
-    <mergeCell ref="AV40:AW40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="AT39:AU39"/>
-    <mergeCell ref="AV39:AW39"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="Z39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AS39"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="Z46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AS46"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="Z42:AD42"/>
-    <mergeCell ref="Z43:AD43"/>
-    <mergeCell ref="Z44:AD44"/>
-    <mergeCell ref="Z45:AD45"/>
-    <mergeCell ref="Z41:AD41"/>
-    <mergeCell ref="U42:Y42"/>
-    <mergeCell ref="U43:Y43"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AS42"/>
-    <mergeCell ref="AT42:AU42"/>
-    <mergeCell ref="AV42:AW42"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AS41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AS45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="AV45:AW45"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AT43:AU43"/>
-    <mergeCell ref="AV43:AW43"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
